--- a/dash/data/formatted data/Mantzouki_et_al_2018_GLEON_GMA_data.xlsx
+++ b/dash/data/formatted data/Mantzouki_et_al_2018_GLEON_GMA_data.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saba/GLEON-GMA/dash/data/formatted data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631BF086-9525-694C-BEC2-ADEE5D112FE6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79002CC0-068E-4A47-B7AF-8F11C73D4E07}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="1700" windowWidth="23040" windowHeight="12200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Description" sheetId="2" r:id="rId1"/>
-    <sheet name="GLEON_GMA_Example csv" sheetId="1" r:id="rId2"/>
+    <sheet name="GLEON_GMA_Example csv" sheetId="1" r:id="rId1"/>
+    <sheet name="Description" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2201" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="496">
   <si>
     <t>Date</t>
   </si>
@@ -1509,9 +1509,6 @@
   </si>
   <si>
     <t>Evanthia Mantzouki</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -2530,625 +2527,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C54"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="72.6640625" customWidth="1"/>
-    <col min="3" max="3" width="42.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="16" thickBot="1">
-      <c r="A1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16" thickBot="1">
-      <c r="A2" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16" thickBot="1">
-      <c r="A3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16" thickBot="1">
-      <c r="A4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16" thickBot="1">
-      <c r="A5" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16" thickBot="1">
-      <c r="A6" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16" thickBot="1">
-      <c r="A7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16" thickBot="1">
-      <c r="A8" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="16" thickBot="1">
-      <c r="A9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="16" thickBot="1">
-      <c r="A10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="16" thickBot="1">
-      <c r="A11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
-      <c r="A12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
-      <c r="A13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="29" thickBot="1">
-      <c r="A14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="16" thickBot="1">
-      <c r="A15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="16" thickBot="1">
-      <c r="A16" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="16" thickBot="1">
-      <c r="A17" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16" thickBot="1">
-      <c r="A18" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="16" thickBot="1">
-      <c r="A19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="16" thickBot="1">
-      <c r="A20" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="16" thickBot="1">
-      <c r="A21" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="16" thickBot="1">
-      <c r="A22" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="16" thickBot="1">
-      <c r="A23" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="16" thickBot="1">
-      <c r="A24" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="16" thickBot="1">
-      <c r="A25" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="16" thickBot="1">
-      <c r="A26" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="16" thickBot="1">
-      <c r="A27" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="16" thickBot="1">
-      <c r="A28" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="16" thickBot="1">
-      <c r="A29" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="16" thickBot="1">
-      <c r="A30" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="16" thickBot="1">
-      <c r="A31" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="16" thickBot="1">
-      <c r="A32" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="16" thickBot="1">
-      <c r="A33" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="16" thickBot="1">
-      <c r="A34" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="16" thickBot="1">
-      <c r="A35" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="16" thickBot="1">
-      <c r="A36" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="16" thickBot="1">
-      <c r="A37" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="16" thickBot="1">
-      <c r="A38" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="16" thickBot="1">
-      <c r="A39" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="16" thickBot="1">
-      <c r="A40" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="16" thickBot="1">
-      <c r="A41" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="16" thickBot="1">
-      <c r="A42" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="16" thickBot="1">
-      <c r="A43" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="16" thickBot="1">
-      <c r="A44" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="16" thickBot="1">
-      <c r="A45" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="16" thickBot="1">
-      <c r="A46" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BB370"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A350" workbookViewId="0">
+      <selection activeCell="D376" sqref="D376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3384,17 +2767,11 @@
       <c r="O2">
         <v>0.15</v>
       </c>
-      <c r="P2" t="s">
-        <v>496</v>
-      </c>
       <c r="Q2">
         <v>0.25700000000000001</v>
       </c>
       <c r="R2">
         <v>0.03</v>
-      </c>
-      <c r="S2" t="s">
-        <v>496</v>
       </c>
       <c r="T2">
         <v>1.976</v>
@@ -3488,9 +2865,6 @@
       <c r="H3">
         <v>18</v>
       </c>
-      <c r="I3" t="s">
-        <v>496</v>
-      </c>
       <c r="J3">
         <v>1.05</v>
       </c>
@@ -3514,12 +2888,6 @@
       </c>
       <c r="Q3">
         <v>0.11799999999999999</v>
-      </c>
-      <c r="R3" t="s">
-        <v>496</v>
-      </c>
-      <c r="S3" t="s">
-        <v>496</v>
       </c>
       <c r="T3">
         <v>0.61799999999999999</v>
@@ -3613,9 +2981,6 @@
       <c r="H4">
         <v>13</v>
       </c>
-      <c r="I4" t="s">
-        <v>496</v>
-      </c>
       <c r="J4">
         <v>1.6</v>
       </c>
@@ -3639,9 +3004,6 @@
       </c>
       <c r="Q4">
         <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="R4" t="s">
-        <v>496</v>
       </c>
       <c r="S4">
         <v>6.4210000000000003</v>
@@ -3738,18 +3100,12 @@
       <c r="H5">
         <v>4</v>
       </c>
-      <c r="I5" t="s">
-        <v>496</v>
-      </c>
       <c r="J5">
         <v>3.5</v>
       </c>
       <c r="K5">
         <v>3</v>
       </c>
-      <c r="L5" t="s">
-        <v>496</v>
-      </c>
       <c r="M5">
         <v>25.99</v>
       </c>
@@ -3761,12 +3117,6 @@
       </c>
       <c r="P5">
         <v>0.2</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>496</v>
-      </c>
-      <c r="R5" t="s">
-        <v>496</v>
       </c>
       <c r="S5">
         <v>4.5430000000000001</v>
@@ -3890,9 +3240,6 @@
       <c r="Q6">
         <v>0.44</v>
       </c>
-      <c r="R6" t="s">
-        <v>496</v>
-      </c>
       <c r="S6">
         <v>4.3860000000000001</v>
       </c>
@@ -4015,12 +3362,6 @@
       <c r="Q7">
         <v>0.84</v>
       </c>
-      <c r="R7" t="s">
-        <v>496</v>
-      </c>
-      <c r="S7" t="s">
-        <v>496</v>
-      </c>
       <c r="T7">
         <v>2.9</v>
       </c>
@@ -4140,12 +3481,6 @@
       <c r="Q8">
         <v>0.73</v>
       </c>
-      <c r="R8" t="s">
-        <v>496</v>
-      </c>
-      <c r="S8" t="s">
-        <v>496</v>
-      </c>
       <c r="T8">
         <v>6.7110000000000003</v>
       </c>
@@ -4238,9 +3573,6 @@
       <c r="H9">
         <v>32</v>
       </c>
-      <c r="I9" t="s">
-        <v>496</v>
-      </c>
       <c r="J9">
         <v>4</v>
       </c>
@@ -4264,12 +3596,6 @@
       </c>
       <c r="Q9">
         <v>0.08</v>
-      </c>
-      <c r="R9" t="s">
-        <v>496</v>
-      </c>
-      <c r="S9" t="s">
-        <v>496</v>
       </c>
       <c r="T9">
         <v>2.585</v>
@@ -4390,12 +3716,6 @@
       <c r="Q10">
         <v>0.33200000000000002</v>
       </c>
-      <c r="R10" t="s">
-        <v>496</v>
-      </c>
-      <c r="S10" t="s">
-        <v>496</v>
-      </c>
       <c r="T10">
         <v>0.79400000000000004</v>
       </c>
@@ -4488,9 +3808,6 @@
       <c r="H11">
         <v>45</v>
       </c>
-      <c r="I11" t="s">
-        <v>496</v>
-      </c>
       <c r="J11">
         <v>1.2</v>
       </c>
@@ -4514,9 +3831,6 @@
       </c>
       <c r="Q11">
         <v>2.0430000000000001</v>
-      </c>
-      <c r="R11" t="s">
-        <v>496</v>
       </c>
       <c r="S11">
         <v>4.6079999999999997</v>
@@ -4640,12 +3954,6 @@
       <c r="Q12">
         <v>0.46899999999999997</v>
       </c>
-      <c r="R12" t="s">
-        <v>496</v>
-      </c>
-      <c r="S12" t="s">
-        <v>496</v>
-      </c>
       <c r="T12">
         <v>0.48299999999999998</v>
       </c>
@@ -4765,9 +4073,6 @@
       <c r="Q13">
         <v>0.375</v>
       </c>
-      <c r="R13" t="s">
-        <v>496</v>
-      </c>
       <c r="S13">
         <v>5.3040000000000003</v>
       </c>
@@ -4890,9 +4195,6 @@
       <c r="Q14">
         <v>0.25600000000000001</v>
       </c>
-      <c r="R14" t="s">
-        <v>496</v>
-      </c>
       <c r="S14">
         <v>4.0579999999999998</v>
       </c>
@@ -5015,12 +4317,6 @@
       <c r="Q15">
         <v>0.32</v>
       </c>
-      <c r="R15" t="s">
-        <v>496</v>
-      </c>
-      <c r="S15" t="s">
-        <v>496</v>
-      </c>
       <c r="T15">
         <v>1.7809999999999999</v>
       </c>
@@ -5113,9 +4409,6 @@
       <c r="H16">
         <v>27</v>
       </c>
-      <c r="I16" t="s">
-        <v>496</v>
-      </c>
       <c r="J16">
         <v>2.6</v>
       </c>
@@ -5265,12 +4558,6 @@
       <c r="Q17">
         <v>0.28299999999999997</v>
       </c>
-      <c r="R17" t="s">
-        <v>496</v>
-      </c>
-      <c r="S17" t="s">
-        <v>496</v>
-      </c>
       <c r="T17">
         <v>7.5979999999999999</v>
       </c>
@@ -5459,9 +4746,6 @@
       <c r="AP18">
         <v>0</v>
       </c>
-      <c r="AQ18" t="s">
-        <v>496</v>
-      </c>
       <c r="AR18">
         <v>0</v>
       </c>
@@ -5640,9 +4924,6 @@
       <c r="Q20">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="R20" t="s">
-        <v>496</v>
-      </c>
       <c r="S20">
         <v>4.6719999999999997</v>
       </c>
@@ -5765,9 +5046,6 @@
       <c r="Q21">
         <v>0.56799999999999995</v>
       </c>
-      <c r="R21" t="s">
-        <v>496</v>
-      </c>
       <c r="S21">
         <v>7.4960000000000004</v>
       </c>
@@ -5988,9 +5266,6 @@
       <c r="H23">
         <v>33</v>
       </c>
-      <c r="I23" t="s">
-        <v>496</v>
-      </c>
       <c r="J23">
         <v>4.4000000000000004</v>
       </c>
@@ -6113,9 +5388,6 @@
       <c r="H24">
         <v>24</v>
       </c>
-      <c r="I24" t="s">
-        <v>496</v>
-      </c>
       <c r="J24">
         <v>3.04</v>
       </c>
@@ -6238,9 +5510,6 @@
       <c r="H25">
         <v>12</v>
       </c>
-      <c r="I25" t="s">
-        <v>496</v>
-      </c>
       <c r="J25">
         <v>1.49</v>
       </c>
@@ -6363,9 +5632,6 @@
       <c r="H26">
         <v>27</v>
       </c>
-      <c r="I26" t="s">
-        <v>496</v>
-      </c>
       <c r="J26">
         <v>2.15</v>
       </c>
@@ -6381,9 +5647,6 @@
       <c r="N26">
         <v>20.99</v>
       </c>
-      <c r="O26" t="s">
-        <v>496</v>
-      </c>
       <c r="P26">
         <v>4.0999999999999996</v>
       </c>
@@ -6392,9 +5655,6 @@
       </c>
       <c r="R26">
         <v>0.02</v>
-      </c>
-      <c r="S26" t="s">
-        <v>496</v>
       </c>
       <c r="T26">
         <v>8.3650000000000002</v>
@@ -6488,9 +5748,6 @@
       <c r="H27">
         <v>13</v>
       </c>
-      <c r="I27" t="s">
-        <v>496</v>
-      </c>
       <c r="J27">
         <v>0.8</v>
       </c>
@@ -6511,15 +5768,6 @@
       </c>
       <c r="P27">
         <v>0.4</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>496</v>
-      </c>
-      <c r="R27" t="s">
-        <v>496</v>
-      </c>
-      <c r="S27" t="s">
-        <v>496</v>
       </c>
       <c r="T27">
         <v>54.5</v>
@@ -6613,17 +5861,11 @@
       <c r="H28">
         <v>5</v>
       </c>
-      <c r="I28" t="s">
-        <v>496</v>
-      </c>
       <c r="J28">
         <v>0.75</v>
       </c>
       <c r="K28">
         <v>3</v>
-      </c>
-      <c r="L28" t="s">
-        <v>496</v>
       </c>
       <c r="M28">
         <v>20.62</v>
@@ -6738,9 +5980,6 @@
       <c r="H29">
         <v>31</v>
       </c>
-      <c r="I29" t="s">
-        <v>496</v>
-      </c>
       <c r="J29">
         <v>3.5</v>
       </c>
@@ -6756,9 +5995,6 @@
       <c r="N29">
         <v>23.33</v>
       </c>
-      <c r="O29" t="s">
-        <v>496</v>
-      </c>
       <c r="P29">
         <v>4.5999999999999996</v>
       </c>
@@ -6768,9 +6004,6 @@
       <c r="R29">
         <v>0.03</v>
       </c>
-      <c r="S29" t="s">
-        <v>496</v>
-      </c>
       <c r="T29">
         <v>10.176</v>
       </c>
@@ -6827,9 +6060,6 @@
       </c>
       <c r="AN29">
         <v>0</v>
-      </c>
-      <c r="AO29" t="s">
-        <v>496</v>
       </c>
       <c r="AP29">
         <v>0</v>
@@ -6863,9 +6093,6 @@
       <c r="H30">
         <v>6</v>
       </c>
-      <c r="I30" t="s">
-        <v>496</v>
-      </c>
       <c r="J30">
         <v>0.32</v>
       </c>
@@ -6886,9 +6113,6 @@
       </c>
       <c r="P30">
         <v>0.6</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>496</v>
       </c>
       <c r="R30">
         <v>0.01</v>
@@ -6988,9 +6212,6 @@
       <c r="H31">
         <v>5</v>
       </c>
-      <c r="I31" t="s">
-        <v>496</v>
-      </c>
       <c r="J31">
         <v>0.5</v>
       </c>
@@ -7113,9 +6334,6 @@
       <c r="H32">
         <v>8</v>
       </c>
-      <c r="I32" t="s">
-        <v>496</v>
-      </c>
       <c r="J32">
         <v>0.18</v>
       </c>
@@ -7238,18 +6456,12 @@
       <c r="H33">
         <v>3</v>
       </c>
-      <c r="I33" t="s">
-        <v>496</v>
-      </c>
       <c r="J33">
         <v>0.4</v>
       </c>
       <c r="K33">
         <v>2</v>
       </c>
-      <c r="L33" t="s">
-        <v>496</v>
-      </c>
       <c r="M33">
         <v>18.899999999999999</v>
       </c>
@@ -7261,12 +6473,6 @@
       </c>
       <c r="P33">
         <v>0.4</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>496</v>
-      </c>
-      <c r="R33" t="s">
-        <v>496</v>
       </c>
       <c r="S33">
         <v>7.3490000000000002</v>
@@ -7393,9 +6599,6 @@
       <c r="R34">
         <v>0.02</v>
       </c>
-      <c r="S34" t="s">
-        <v>496</v>
-      </c>
       <c r="T34">
         <v>37.356000000000002</v>
       </c>
@@ -7622,9 +6825,6 @@
       <c r="K36">
         <v>20</v>
       </c>
-      <c r="L36" t="s">
-        <v>496</v>
-      </c>
       <c r="M36">
         <v>20.16</v>
       </c>
@@ -7643,9 +6843,6 @@
       <c r="R36">
         <v>0.02</v>
       </c>
-      <c r="S36" t="s">
-        <v>496</v>
-      </c>
       <c r="T36">
         <v>1.8049999999999999</v>
       </c>
@@ -7708,12 +6905,6 @@
       </c>
       <c r="AP36">
         <v>0</v>
-      </c>
-      <c r="AQ36" t="s">
-        <v>496</v>
-      </c>
-      <c r="AR36" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="37" spans="2:44">
@@ -7747,9 +6938,6 @@
       <c r="K37">
         <v>2.5</v>
       </c>
-      <c r="L37" t="s">
-        <v>496</v>
-      </c>
       <c r="M37">
         <v>17.95</v>
       </c>
@@ -7762,14 +6950,8 @@
       <c r="P37">
         <v>0.3</v>
       </c>
-      <c r="Q37" t="s">
-        <v>496</v>
-      </c>
       <c r="R37">
         <v>0.11</v>
-      </c>
-      <c r="S37" t="s">
-        <v>496</v>
       </c>
       <c r="T37">
         <v>19.59</v>
@@ -7884,17 +7066,11 @@
       <c r="O38">
         <v>0.08</v>
       </c>
-      <c r="P38" t="s">
-        <v>496</v>
-      </c>
       <c r="Q38">
         <v>2.3E-2</v>
       </c>
       <c r="R38">
         <v>0.03</v>
-      </c>
-      <c r="S38" t="s">
-        <v>496</v>
       </c>
       <c r="T38">
         <v>9.4480000000000004</v>
@@ -8057,39 +7233,6 @@
       <c r="AE39">
         <v>0</v>
       </c>
-      <c r="AH39" t="s">
-        <v>496</v>
-      </c>
-      <c r="AI39" t="s">
-        <v>496</v>
-      </c>
-      <c r="AJ39" t="s">
-        <v>496</v>
-      </c>
-      <c r="AK39" t="s">
-        <v>496</v>
-      </c>
-      <c r="AL39" t="s">
-        <v>496</v>
-      </c>
-      <c r="AM39" t="s">
-        <v>496</v>
-      </c>
-      <c r="AN39" t="s">
-        <v>496</v>
-      </c>
-      <c r="AO39" t="s">
-        <v>496</v>
-      </c>
-      <c r="AP39" t="s">
-        <v>496</v>
-      </c>
-      <c r="AQ39" t="s">
-        <v>496</v>
-      </c>
-      <c r="AR39" t="s">
-        <v>496</v>
-      </c>
     </row>
     <row r="40" spans="2:44">
       <c r="B40" s="15">
@@ -8122,9 +7265,6 @@
       <c r="K40">
         <v>3.5</v>
       </c>
-      <c r="L40" t="s">
-        <v>496</v>
-      </c>
       <c r="M40">
         <v>19.170000000000002</v>
       </c>
@@ -8134,17 +7274,11 @@
       <c r="O40">
         <v>0.03</v>
       </c>
-      <c r="P40" t="s">
-        <v>496</v>
-      </c>
       <c r="Q40">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="R40">
         <v>0.03</v>
-      </c>
-      <c r="S40" t="s">
-        <v>496</v>
       </c>
       <c r="T40">
         <v>2.6070000000000002</v>
@@ -8238,9 +7372,6 @@
       <c r="H41">
         <v>17</v>
       </c>
-      <c r="I41" t="s">
-        <v>496</v>
-      </c>
       <c r="J41">
         <v>1.45</v>
       </c>
@@ -8256,32 +7387,8 @@
       <c r="N41">
         <v>17.579999999999998</v>
       </c>
-      <c r="O41" t="s">
-        <v>496</v>
-      </c>
-      <c r="P41" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>496</v>
-      </c>
-      <c r="R41" t="s">
-        <v>496</v>
-      </c>
       <c r="S41">
         <v>11.673999999999999</v>
-      </c>
-      <c r="T41" t="s">
-        <v>496</v>
-      </c>
-      <c r="U41" t="s">
-        <v>496</v>
-      </c>
-      <c r="V41" t="s">
-        <v>496</v>
-      </c>
-      <c r="W41" t="s">
-        <v>496</v>
       </c>
       <c r="X41">
         <v>0</v>
@@ -8381,12 +7488,6 @@
       <c r="N42">
         <v>17.72</v>
       </c>
-      <c r="O42" t="s">
-        <v>496</v>
-      </c>
-      <c r="P42" t="s">
-        <v>496</v>
-      </c>
       <c r="Q42">
         <v>4.3999999999999997E-2</v>
       </c>
@@ -8458,9 +7559,6 @@
       </c>
       <c r="AP42">
         <v>0</v>
-      </c>
-      <c r="AQ42" t="s">
-        <v>496</v>
       </c>
       <c r="AR42">
         <v>0</v>
@@ -8506,15 +7604,9 @@
       <c r="N43">
         <v>13.92</v>
       </c>
-      <c r="O43" t="s">
-        <v>496</v>
-      </c>
       <c r="P43">
         <v>1.9</v>
       </c>
-      <c r="Q43" t="s">
-        <v>496</v>
-      </c>
       <c r="R43">
         <v>0.06</v>
       </c>
@@ -8583,9 +7675,6 @@
       </c>
       <c r="AP43">
         <v>0</v>
-      </c>
-      <c r="AQ43" t="s">
-        <v>496</v>
       </c>
       <c r="AR43">
         <v>0</v>
@@ -8613,17 +7702,11 @@
       <c r="H44">
         <v>2</v>
       </c>
-      <c r="I44" t="s">
-        <v>496</v>
-      </c>
       <c r="J44">
         <v>0.6</v>
       </c>
       <c r="K44">
         <v>2</v>
-      </c>
-      <c r="L44" t="s">
-        <v>496</v>
       </c>
       <c r="M44">
         <v>22.55</v>
@@ -8759,18 +7842,6 @@
       <c r="O45">
         <v>0.04</v>
       </c>
-      <c r="P45" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>496</v>
-      </c>
-      <c r="R45" t="s">
-        <v>496</v>
-      </c>
-      <c r="S45" t="s">
-        <v>496</v>
-      </c>
       <c r="T45">
         <v>4.891</v>
       </c>
@@ -8857,24 +7928,12 @@
       <c r="F46">
         <v>13.785444439999999</v>
       </c>
-      <c r="G46" t="s">
-        <v>496</v>
-      </c>
-      <c r="H46" t="s">
-        <v>496</v>
-      </c>
-      <c r="I46" t="s">
-        <v>496</v>
-      </c>
       <c r="J46">
         <v>0.4</v>
       </c>
       <c r="K46">
         <v>3</v>
       </c>
-      <c r="L46" t="s">
-        <v>496</v>
-      </c>
       <c r="M46">
         <v>21.39</v>
       </c>
@@ -8886,9 +7945,6 @@
       </c>
       <c r="P46">
         <v>0.6</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>496</v>
       </c>
       <c r="R46">
         <v>0.03</v>
@@ -8997,9 +8053,6 @@
       <c r="K47">
         <v>6.5</v>
       </c>
-      <c r="L47" t="s">
-        <v>496</v>
-      </c>
       <c r="M47">
         <v>21.93</v>
       </c>
@@ -9238,9 +8291,6 @@
       <c r="H49">
         <v>30</v>
       </c>
-      <c r="I49" t="s">
-        <v>496</v>
-      </c>
       <c r="J49">
         <v>0.67</v>
       </c>
@@ -9261,9 +8311,6 @@
       </c>
       <c r="P49">
         <v>0.1</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>496</v>
       </c>
       <c r="R49">
         <v>0.09</v>
@@ -9357,9 +8404,6 @@
       <c r="F50">
         <v>13.1958611</v>
       </c>
-      <c r="G50" t="s">
-        <v>496</v>
-      </c>
       <c r="H50">
         <v>5</v>
       </c>
@@ -9392,9 +8436,6 @@
       </c>
       <c r="R50">
         <v>0.04</v>
-      </c>
-      <c r="S50" t="s">
-        <v>496</v>
       </c>
       <c r="T50">
         <v>34.29</v>
@@ -9634,17 +8675,11 @@
       <c r="O52">
         <v>0.04</v>
       </c>
-      <c r="P52" t="s">
-        <v>496</v>
-      </c>
       <c r="Q52">
         <v>1.2E-2</v>
       </c>
       <c r="R52">
         <v>0.03</v>
-      </c>
-      <c r="S52" t="s">
-        <v>496</v>
       </c>
       <c r="T52">
         <v>0.59799999999999998</v>
@@ -9732,24 +8767,12 @@
       <c r="F53">
         <v>12.881906000000001</v>
       </c>
-      <c r="G53" t="s">
-        <v>496</v>
-      </c>
-      <c r="H53" t="s">
-        <v>496</v>
-      </c>
-      <c r="I53" t="s">
-        <v>496</v>
-      </c>
       <c r="J53">
         <v>0.7</v>
       </c>
       <c r="K53">
         <v>2.5</v>
       </c>
-      <c r="L53" t="s">
-        <v>496</v>
-      </c>
       <c r="M53">
         <v>21.29</v>
       </c>
@@ -9764,9 +8787,6 @@
       </c>
       <c r="Q53">
         <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="R53" t="s">
-        <v>496</v>
       </c>
       <c r="S53">
         <v>6.1289999999999996</v>
@@ -9881,12 +8901,6 @@
       <c r="N54">
         <v>21.04</v>
       </c>
-      <c r="O54" t="s">
-        <v>496</v>
-      </c>
-      <c r="P54" t="s">
-        <v>496</v>
-      </c>
       <c r="Q54">
         <v>1.4E-2</v>
       </c>
@@ -9982,15 +8996,6 @@
       <c r="F55">
         <v>13.0350222</v>
       </c>
-      <c r="G55" t="s">
-        <v>496</v>
-      </c>
-      <c r="H55" t="s">
-        <v>496</v>
-      </c>
-      <c r="I55" t="s">
-        <v>496</v>
-      </c>
       <c r="J55">
         <v>0.7</v>
       </c>
@@ -10107,15 +9112,6 @@
       <c r="F56">
         <v>14.0235</v>
       </c>
-      <c r="G56" t="s">
-        <v>496</v>
-      </c>
-      <c r="H56" t="s">
-        <v>496</v>
-      </c>
-      <c r="I56" t="s">
-        <v>496</v>
-      </c>
       <c r="J56">
         <v>1.1000000000000001</v>
       </c>
@@ -10136,9 +9132,6 @@
       </c>
       <c r="P56">
         <v>0.5</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>496</v>
       </c>
       <c r="R56">
         <v>0.03</v>
@@ -10232,15 +9225,6 @@
       <c r="F57">
         <v>14.052640999999999</v>
       </c>
-      <c r="G57" t="s">
-        <v>496</v>
-      </c>
-      <c r="H57" t="s">
-        <v>496</v>
-      </c>
-      <c r="I57" t="s">
-        <v>496</v>
-      </c>
       <c r="J57">
         <v>0.85</v>
       </c>
@@ -10256,17 +9240,8 @@
       <c r="N57">
         <v>16.87</v>
       </c>
-      <c r="O57" t="s">
-        <v>496</v>
-      </c>
       <c r="P57">
         <v>0.7</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>496</v>
-      </c>
-      <c r="R57" t="s">
-        <v>496</v>
       </c>
       <c r="S57">
         <v>23.428999999999998</v>
@@ -10381,14 +9356,8 @@
       <c r="N58">
         <v>21.29</v>
       </c>
-      <c r="O58" t="s">
-        <v>496</v>
-      </c>
       <c r="P58">
         <v>0.3</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>496</v>
       </c>
       <c r="R58">
         <v>0.02</v>
@@ -10607,15 +9576,6 @@
       <c r="F60">
         <v>13.837662</v>
       </c>
-      <c r="G60" t="s">
-        <v>496</v>
-      </c>
-      <c r="H60" t="s">
-        <v>496</v>
-      </c>
-      <c r="I60" t="s">
-        <v>496</v>
-      </c>
       <c r="J60">
         <v>0.85</v>
       </c>
@@ -10630,90 +9590,6 @@
       </c>
       <c r="N60">
         <v>17.399999999999999</v>
-      </c>
-      <c r="O60" t="s">
-        <v>496</v>
-      </c>
-      <c r="P60" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>496</v>
-      </c>
-      <c r="R60" t="s">
-        <v>496</v>
-      </c>
-      <c r="S60" t="s">
-        <v>496</v>
-      </c>
-      <c r="T60" t="s">
-        <v>496</v>
-      </c>
-      <c r="U60" t="s">
-        <v>496</v>
-      </c>
-      <c r="V60" t="s">
-        <v>496</v>
-      </c>
-      <c r="W60" t="s">
-        <v>496</v>
-      </c>
-      <c r="X60" t="s">
-        <v>496</v>
-      </c>
-      <c r="Y60" t="s">
-        <v>496</v>
-      </c>
-      <c r="Z60" t="s">
-        <v>496</v>
-      </c>
-      <c r="AA60" t="s">
-        <v>496</v>
-      </c>
-      <c r="AB60" t="s">
-        <v>496</v>
-      </c>
-      <c r="AC60" t="s">
-        <v>496</v>
-      </c>
-      <c r="AD60" t="s">
-        <v>496</v>
-      </c>
-      <c r="AE60" t="s">
-        <v>496</v>
-      </c>
-      <c r="AH60" t="s">
-        <v>496</v>
-      </c>
-      <c r="AI60" t="s">
-        <v>496</v>
-      </c>
-      <c r="AJ60" t="s">
-        <v>496</v>
-      </c>
-      <c r="AK60" t="s">
-        <v>496</v>
-      </c>
-      <c r="AL60" t="s">
-        <v>496</v>
-      </c>
-      <c r="AM60" t="s">
-        <v>496</v>
-      </c>
-      <c r="AN60" t="s">
-        <v>496</v>
-      </c>
-      <c r="AO60" t="s">
-        <v>496</v>
-      </c>
-      <c r="AP60" t="s">
-        <v>496</v>
-      </c>
-      <c r="AQ60" t="s">
-        <v>496</v>
-      </c>
-      <c r="AR60" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="61" spans="2:44">
@@ -10759,17 +9635,8 @@
       <c r="O61">
         <v>0.06</v>
       </c>
-      <c r="P61" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>496</v>
-      </c>
       <c r="R61">
         <v>0.02</v>
-      </c>
-      <c r="S61" t="s">
-        <v>496</v>
       </c>
       <c r="T61">
         <v>0.69199999999999995</v>
@@ -10857,15 +9724,6 @@
       <c r="F62">
         <v>13.208500000000001</v>
       </c>
-      <c r="G62" t="s">
-        <v>496</v>
-      </c>
-      <c r="H62" t="s">
-        <v>496</v>
-      </c>
-      <c r="I62" t="s">
-        <v>496</v>
-      </c>
       <c r="J62">
         <v>0.6</v>
       </c>
@@ -10884,14 +9742,8 @@
       <c r="O62">
         <v>0.05</v>
       </c>
-      <c r="P62" t="s">
-        <v>496</v>
-      </c>
       <c r="Q62">
         <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="R62" t="s">
-        <v>496</v>
       </c>
       <c r="S62">
         <v>37.051000000000002</v>
@@ -10982,15 +9834,6 @@
       <c r="F63">
         <v>12.691713</v>
       </c>
-      <c r="G63" t="s">
-        <v>496</v>
-      </c>
-      <c r="H63" t="s">
-        <v>496</v>
-      </c>
-      <c r="I63" t="s">
-        <v>496</v>
-      </c>
       <c r="J63">
         <v>2.2000000000000002</v>
       </c>
@@ -11107,15 +9950,6 @@
       <c r="F64">
         <v>13.249775</v>
       </c>
-      <c r="G64" t="s">
-        <v>496</v>
-      </c>
-      <c r="H64" t="s">
-        <v>496</v>
-      </c>
-      <c r="I64" t="s">
-        <v>496</v>
-      </c>
       <c r="J64">
         <v>0.92</v>
       </c>
@@ -11130,9 +9964,6 @@
       </c>
       <c r="N64">
         <v>13.59</v>
-      </c>
-      <c r="O64" t="s">
-        <v>496</v>
       </c>
       <c r="P64">
         <v>3.2</v>
@@ -11259,17 +10090,11 @@
       <c r="O65">
         <v>0.04</v>
       </c>
-      <c r="P65" t="s">
-        <v>496</v>
-      </c>
       <c r="Q65">
         <v>2.4E-2</v>
       </c>
       <c r="R65">
         <v>0.04</v>
-      </c>
-      <c r="S65" t="s">
-        <v>496</v>
       </c>
       <c r="T65">
         <v>59.959000000000003</v>
@@ -11357,15 +10182,6 @@
       <c r="F66">
         <v>12.936416700000001</v>
       </c>
-      <c r="G66" t="s">
-        <v>496</v>
-      </c>
-      <c r="H66" t="s">
-        <v>496</v>
-      </c>
-      <c r="I66" t="s">
-        <v>496</v>
-      </c>
       <c r="J66">
         <v>2.62</v>
       </c>
@@ -11482,15 +10298,6 @@
       <c r="F67">
         <v>13.2936111</v>
       </c>
-      <c r="G67" t="s">
-        <v>496</v>
-      </c>
-      <c r="H67" t="s">
-        <v>496</v>
-      </c>
-      <c r="I67" t="s">
-        <v>496</v>
-      </c>
       <c r="J67">
         <v>1.45</v>
       </c>
@@ -11583,9 +10390,6 @@
       </c>
       <c r="AP67">
         <v>0</v>
-      </c>
-      <c r="AQ67" t="s">
-        <v>496</v>
       </c>
       <c r="AR67">
         <v>0</v>
@@ -11622,9 +10426,6 @@
       <c r="K68">
         <v>2.5</v>
       </c>
-      <c r="L68" t="s">
-        <v>496</v>
-      </c>
       <c r="M68">
         <v>19.2</v>
       </c>
@@ -11636,9 +10437,6 @@
       </c>
       <c r="P68">
         <v>0.3</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>496</v>
       </c>
       <c r="R68">
         <v>0.03</v>
@@ -11762,12 +10560,6 @@
       <c r="P69">
         <v>0.5</v>
       </c>
-      <c r="Q69" t="s">
-        <v>496</v>
-      </c>
-      <c r="R69" t="s">
-        <v>496</v>
-      </c>
       <c r="S69">
         <v>21.29</v>
       </c>
@@ -11887,9 +10679,6 @@
       <c r="P70">
         <v>0.5</v>
       </c>
-      <c r="Q70" t="s">
-        <v>496</v>
-      </c>
       <c r="R70">
         <v>0.27</v>
       </c>
@@ -11997,9 +10786,6 @@
       <c r="K71">
         <v>2.5</v>
       </c>
-      <c r="L71" t="s">
-        <v>496</v>
-      </c>
       <c r="M71">
         <v>18.7</v>
       </c>
@@ -12113,9 +10899,6 @@
       <c r="H72">
         <v>10</v>
       </c>
-      <c r="I72" t="s">
-        <v>496</v>
-      </c>
       <c r="J72">
         <v>0.7</v>
       </c>
@@ -12131,14 +10914,8 @@
       <c r="N72">
         <v>21.03</v>
       </c>
-      <c r="O72" t="s">
-        <v>496</v>
-      </c>
       <c r="P72">
         <v>0.5</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>496</v>
       </c>
       <c r="R72">
         <v>0.09</v>
@@ -12262,9 +11039,6 @@
       <c r="P73">
         <v>0.2</v>
       </c>
-      <c r="Q73" t="s">
-        <v>496</v>
-      </c>
       <c r="R73">
         <v>0.02</v>
       </c>
@@ -12372,9 +11146,6 @@
       <c r="K74">
         <v>2.5</v>
       </c>
-      <c r="L74" t="s">
-        <v>496</v>
-      </c>
       <c r="M74">
         <v>19.5</v>
       </c>
@@ -12386,12 +11157,6 @@
       </c>
       <c r="P74">
         <v>0.6</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>496</v>
-      </c>
-      <c r="R74" t="s">
-        <v>496</v>
       </c>
       <c r="S74">
         <v>7.1609999999999996</v>
@@ -12509,15 +11274,6 @@
       <c r="O75">
         <v>0.09</v>
       </c>
-      <c r="P75" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>496</v>
-      </c>
-      <c r="R75" t="s">
-        <v>496</v>
-      </c>
       <c r="S75">
         <v>9.1460000000000008</v>
       </c>
@@ -12622,9 +11378,6 @@
       <c r="K76">
         <v>1.5</v>
       </c>
-      <c r="L76" t="s">
-        <v>496</v>
-      </c>
       <c r="M76">
         <v>19.989999999999998</v>
       </c>
@@ -12642,9 +11395,6 @@
       </c>
       <c r="R76">
         <v>0.04</v>
-      </c>
-      <c r="S76" t="s">
-        <v>496</v>
       </c>
       <c r="T76">
         <v>3.3359999999999999</v>
@@ -12756,20 +11506,11 @@
       <c r="N77">
         <v>19.61</v>
       </c>
-      <c r="O77" t="s">
-        <v>496</v>
-      </c>
       <c r="P77">
         <v>0.6</v>
       </c>
-      <c r="Q77" t="s">
-        <v>496</v>
-      </c>
       <c r="R77">
         <v>0.02</v>
-      </c>
-      <c r="S77" t="s">
-        <v>496</v>
       </c>
       <c r="T77">
         <v>13.093999999999999</v>
@@ -12881,9 +11622,6 @@
       <c r="N78">
         <v>18.75</v>
       </c>
-      <c r="O78" t="s">
-        <v>496</v>
-      </c>
       <c r="P78">
         <v>1</v>
       </c>
@@ -12892,9 +11630,6 @@
       </c>
       <c r="R78">
         <v>0.04</v>
-      </c>
-      <c r="S78" t="s">
-        <v>496</v>
       </c>
       <c r="T78">
         <v>5.048</v>
@@ -12982,9 +11717,6 @@
       <c r="F79">
         <v>27.574999999999999</v>
       </c>
-      <c r="G79" t="s">
-        <v>496</v>
-      </c>
       <c r="H79">
         <v>15</v>
       </c>
@@ -13017,9 +11749,6 @@
       </c>
       <c r="R79">
         <v>0.02</v>
-      </c>
-      <c r="S79" t="s">
-        <v>496</v>
       </c>
       <c r="T79">
         <v>52.256</v>
@@ -13122,9 +11851,6 @@
       <c r="K80">
         <v>9.5</v>
       </c>
-      <c r="L80" t="s">
-        <v>496</v>
-      </c>
       <c r="M80">
         <v>19.53</v>
       </c>
@@ -13134,17 +11860,11 @@
       <c r="O80">
         <v>0.03</v>
       </c>
-      <c r="P80" t="s">
-        <v>496</v>
-      </c>
       <c r="Q80">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="R80">
         <v>0.02</v>
-      </c>
-      <c r="S80" t="s">
-        <v>496</v>
       </c>
       <c r="T80">
         <v>18.486000000000001</v>
@@ -13247,9 +11967,6 @@
       <c r="K81">
         <v>3.6</v>
       </c>
-      <c r="L81" t="s">
-        <v>496</v>
-      </c>
       <c r="M81">
         <v>20.05</v>
       </c>
@@ -13267,9 +11984,6 @@
       </c>
       <c r="R81">
         <v>0.03</v>
-      </c>
-      <c r="S81" t="s">
-        <v>496</v>
       </c>
       <c r="T81">
         <v>39.304000000000002</v>
@@ -13393,9 +12107,6 @@
       <c r="R82">
         <v>0.02</v>
       </c>
-      <c r="S82" t="s">
-        <v>496</v>
-      </c>
       <c r="T82">
         <v>6.6379999999999999</v>
       </c>
@@ -13506,9 +12217,6 @@
       <c r="N83">
         <v>15.52</v>
       </c>
-      <c r="O83" t="s">
-        <v>496</v>
-      </c>
       <c r="P83">
         <v>0.5</v>
       </c>
@@ -13517,9 +12225,6 @@
       </c>
       <c r="R83">
         <v>0.02</v>
-      </c>
-      <c r="S83" t="s">
-        <v>496</v>
       </c>
       <c r="T83">
         <v>28.927</v>
@@ -13622,9 +12327,6 @@
       <c r="K84">
         <v>4.0999999999999996</v>
       </c>
-      <c r="L84" t="s">
-        <v>496</v>
-      </c>
       <c r="M84">
         <v>19.399999999999999</v>
       </c>
@@ -13636,15 +12338,6 @@
       </c>
       <c r="P84">
         <v>0.7</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>496</v>
-      </c>
-      <c r="R84" t="s">
-        <v>496</v>
-      </c>
-      <c r="S84" t="s">
-        <v>496</v>
       </c>
       <c r="T84">
         <v>67.629000000000005</v>
@@ -13828,9 +12521,6 @@
       <c r="AN85">
         <v>0.44600000000000001</v>
       </c>
-      <c r="AO85" t="s">
-        <v>496</v>
-      </c>
       <c r="AP85">
         <v>0</v>
       </c>
@@ -13872,9 +12562,6 @@
       <c r="K86">
         <v>0.4</v>
       </c>
-      <c r="L86" t="s">
-        <v>496</v>
-      </c>
       <c r="M86">
         <v>29.8</v>
       </c>
@@ -14006,9 +12693,6 @@
       <c r="N87">
         <v>23.61</v>
       </c>
-      <c r="O87" t="s">
-        <v>496</v>
-      </c>
       <c r="P87">
         <v>0.3</v>
       </c>
@@ -14122,9 +12806,6 @@
       <c r="K88">
         <v>6</v>
       </c>
-      <c r="L88" t="s">
-        <v>496</v>
-      </c>
       <c r="M88">
         <v>23.6</v>
       </c>
@@ -14136,9 +12817,6 @@
       </c>
       <c r="P88">
         <v>0.6</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>496</v>
       </c>
       <c r="R88">
         <v>0.02</v>
@@ -14384,9 +13062,6 @@
       <c r="O90">
         <v>0.02</v>
       </c>
-      <c r="P90" t="s">
-        <v>496</v>
-      </c>
       <c r="Q90">
         <v>0.126</v>
       </c>
@@ -14485,12 +13160,6 @@
       <c r="G91">
         <v>122</v>
       </c>
-      <c r="H91" t="s">
-        <v>496</v>
-      </c>
-      <c r="I91" t="s">
-        <v>496</v>
-      </c>
       <c r="J91">
         <v>2.75</v>
       </c>
@@ -14643,9 +13312,6 @@
       <c r="R92">
         <v>0.02</v>
       </c>
-      <c r="S92" t="s">
-        <v>496</v>
-      </c>
       <c r="T92">
         <v>1.6479999999999999</v>
       </c>
@@ -14741,9 +13407,6 @@
       <c r="I93">
         <v>3.65</v>
       </c>
-      <c r="J93" t="s">
-        <v>496</v>
-      </c>
       <c r="K93">
         <v>2</v>
       </c>
@@ -14863,9 +13526,6 @@
       <c r="H94">
         <v>6</v>
       </c>
-      <c r="I94" t="s">
-        <v>496</v>
-      </c>
       <c r="J94">
         <v>6.12</v>
       </c>
@@ -14988,9 +13648,6 @@
       <c r="H95">
         <v>12</v>
       </c>
-      <c r="I95" t="s">
-        <v>496</v>
-      </c>
       <c r="J95">
         <v>3.93</v>
       </c>
@@ -15113,18 +13770,12 @@
       <c r="H96">
         <v>1</v>
       </c>
-      <c r="I96" t="s">
-        <v>496</v>
-      </c>
       <c r="J96">
         <v>1</v>
       </c>
       <c r="K96">
         <v>0.5</v>
       </c>
-      <c r="L96" t="s">
-        <v>496</v>
-      </c>
       <c r="M96">
         <v>30</v>
       </c>
@@ -15136,9 +13787,6 @@
       </c>
       <c r="P96">
         <v>9.6999999999999993</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>496</v>
       </c>
       <c r="R96">
         <v>0.19</v>
@@ -15238,18 +13886,12 @@
       <c r="H97">
         <v>1</v>
       </c>
-      <c r="I97" t="s">
-        <v>496</v>
-      </c>
       <c r="J97">
         <v>0.5</v>
       </c>
       <c r="K97">
         <v>0.5</v>
       </c>
-      <c r="L97" t="s">
-        <v>496</v>
-      </c>
       <c r="M97">
         <v>28.98</v>
       </c>
@@ -15261,15 +13903,6 @@
       </c>
       <c r="P97">
         <v>5.5</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>496</v>
-      </c>
-      <c r="R97" t="s">
-        <v>496</v>
-      </c>
-      <c r="S97" t="s">
-        <v>496</v>
       </c>
       <c r="T97">
         <v>151.82</v>
@@ -15393,9 +14026,6 @@
       <c r="R98">
         <v>0.02</v>
       </c>
-      <c r="S98" t="s">
-        <v>496</v>
-      </c>
       <c r="T98">
         <v>49.622</v>
       </c>
@@ -15446,15 +14076,6 @@
       </c>
       <c r="AL98">
         <v>1.3347</v>
-      </c>
-      <c r="AM98" t="s">
-        <v>496</v>
-      </c>
-      <c r="AN98" t="s">
-        <v>496</v>
-      </c>
-      <c r="AO98" t="s">
-        <v>496</v>
       </c>
       <c r="AP98">
         <v>0</v>
@@ -15485,21 +14106,12 @@
       <c r="G99">
         <v>551</v>
       </c>
-      <c r="H99" t="s">
-        <v>496</v>
-      </c>
-      <c r="I99" t="s">
-        <v>496</v>
-      </c>
       <c r="J99">
         <v>1.5</v>
       </c>
       <c r="K99">
         <v>4</v>
       </c>
-      <c r="L99" t="s">
-        <v>496</v>
-      </c>
       <c r="M99">
         <v>17.72</v>
       </c>
@@ -15514,12 +14126,6 @@
       </c>
       <c r="Q99">
         <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="R99" t="s">
-        <v>496</v>
-      </c>
-      <c r="S99" t="s">
-        <v>496</v>
       </c>
       <c r="T99">
         <v>20.695</v>
@@ -15622,17 +14228,11 @@
       <c r="K100">
         <v>0.2</v>
       </c>
-      <c r="L100" t="s">
-        <v>496</v>
-      </c>
       <c r="M100">
         <v>30.54</v>
       </c>
       <c r="N100">
         <v>30.54</v>
-      </c>
-      <c r="O100" t="s">
-        <v>496</v>
       </c>
       <c r="P100">
         <v>5</v>
@@ -15738,9 +14338,6 @@
       <c r="H101">
         <v>12</v>
       </c>
-      <c r="I101" t="s">
-        <v>496</v>
-      </c>
       <c r="J101">
         <v>0.56999999999999995</v>
       </c>
@@ -15767,9 +14364,6 @@
       </c>
       <c r="R101">
         <v>0.05</v>
-      </c>
-      <c r="S101" t="s">
-        <v>496</v>
       </c>
       <c r="T101">
         <v>4.2160000000000002</v>
@@ -15887,14 +14481,8 @@
       <c r="P102">
         <v>2</v>
       </c>
-      <c r="Q102" t="s">
-        <v>496</v>
-      </c>
       <c r="R102">
         <v>0.06</v>
-      </c>
-      <c r="S102" t="s">
-        <v>496</v>
       </c>
       <c r="T102">
         <v>2.911</v>
@@ -15988,18 +14576,12 @@
       <c r="H103">
         <v>1</v>
       </c>
-      <c r="I103" t="s">
-        <v>496</v>
-      </c>
       <c r="J103">
         <v>0.5</v>
       </c>
       <c r="K103">
         <v>0.3</v>
       </c>
-      <c r="L103" t="s">
-        <v>496</v>
-      </c>
       <c r="M103">
         <v>29.05</v>
       </c>
@@ -16012,26 +14594,11 @@
       <c r="P103">
         <v>2.6</v>
       </c>
-      <c r="Q103" t="s">
-        <v>496</v>
-      </c>
       <c r="R103">
         <v>0.02</v>
       </c>
       <c r="S103">
         <v>154.22800000000001</v>
-      </c>
-      <c r="T103" t="s">
-        <v>496</v>
-      </c>
-      <c r="U103" t="s">
-        <v>496</v>
-      </c>
-      <c r="V103" t="s">
-        <v>496</v>
-      </c>
-      <c r="W103" t="s">
-        <v>496</v>
       </c>
       <c r="X103">
         <v>3.8519999999999999</v>
@@ -16113,9 +14680,6 @@
       <c r="H104">
         <v>25</v>
       </c>
-      <c r="I104" t="s">
-        <v>496</v>
-      </c>
       <c r="J104">
         <v>4.4000000000000004</v>
       </c>
@@ -16131,21 +14695,6 @@
       <c r="N104">
         <v>23.87</v>
       </c>
-      <c r="O104" t="s">
-        <v>496</v>
-      </c>
-      <c r="P104" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q104" t="s">
-        <v>496</v>
-      </c>
-      <c r="R104" t="s">
-        <v>496</v>
-      </c>
-      <c r="S104" t="s">
-        <v>496</v>
-      </c>
       <c r="T104">
         <v>0.83299999999999996</v>
       </c>
@@ -16181,39 +14730,6 @@
       </c>
       <c r="AE104">
         <v>0</v>
-      </c>
-      <c r="AH104" t="s">
-        <v>496</v>
-      </c>
-      <c r="AI104" t="s">
-        <v>496</v>
-      </c>
-      <c r="AJ104" t="s">
-        <v>496</v>
-      </c>
-      <c r="AK104" t="s">
-        <v>496</v>
-      </c>
-      <c r="AL104" t="s">
-        <v>496</v>
-      </c>
-      <c r="AM104" t="s">
-        <v>496</v>
-      </c>
-      <c r="AN104" t="s">
-        <v>496</v>
-      </c>
-      <c r="AO104" t="s">
-        <v>496</v>
-      </c>
-      <c r="AP104" t="s">
-        <v>496</v>
-      </c>
-      <c r="AQ104" t="s">
-        <v>496</v>
-      </c>
-      <c r="AR104" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="105" spans="2:44">
@@ -16247,9 +14763,6 @@
       <c r="K105">
         <v>0.1</v>
       </c>
-      <c r="L105" t="s">
-        <v>496</v>
-      </c>
       <c r="M105">
         <v>29.41</v>
       </c>
@@ -16307,21 +14820,6 @@
       <c r="AE105">
         <v>0</v>
       </c>
-      <c r="AH105" t="s">
-        <v>496</v>
-      </c>
-      <c r="AI105" t="s">
-        <v>496</v>
-      </c>
-      <c r="AJ105" t="s">
-        <v>496</v>
-      </c>
-      <c r="AK105" t="s">
-        <v>496</v>
-      </c>
-      <c r="AL105" t="s">
-        <v>496</v>
-      </c>
       <c r="AM105">
         <v>0</v>
       </c>
@@ -16333,12 +14831,6 @@
       </c>
       <c r="AP105">
         <v>0</v>
-      </c>
-      <c r="AQ105" t="s">
-        <v>496</v>
-      </c>
-      <c r="AR105" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="106" spans="2:44">
@@ -16387,9 +14879,6 @@
       <c r="P106">
         <v>1.8</v>
       </c>
-      <c r="Q106" t="s">
-        <v>496</v>
-      </c>
       <c r="R106">
         <v>1.24</v>
       </c>
@@ -16485,21 +14974,12 @@
       <c r="G107">
         <v>227</v>
       </c>
-      <c r="H107" t="s">
-        <v>496</v>
-      </c>
-      <c r="I107" t="s">
-        <v>496</v>
-      </c>
       <c r="J107">
         <v>2.25</v>
       </c>
       <c r="K107">
         <v>7</v>
       </c>
-      <c r="L107" t="s">
-        <v>496</v>
-      </c>
       <c r="M107">
         <v>18.79</v>
       </c>
@@ -16517,9 +14997,6 @@
       </c>
       <c r="R107">
         <v>0.03</v>
-      </c>
-      <c r="S107" t="s">
-        <v>496</v>
       </c>
       <c r="T107">
         <v>12.55</v>
@@ -16622,9 +15099,6 @@
       <c r="K108">
         <v>0.2</v>
       </c>
-      <c r="L108" t="s">
-        <v>496</v>
-      </c>
       <c r="M108">
         <v>28.81</v>
       </c>
@@ -16682,21 +15156,6 @@
       <c r="AE108">
         <v>8.6859999999999999</v>
       </c>
-      <c r="AH108" t="s">
-        <v>496</v>
-      </c>
-      <c r="AI108" t="s">
-        <v>496</v>
-      </c>
-      <c r="AJ108" t="s">
-        <v>496</v>
-      </c>
-      <c r="AK108" t="s">
-        <v>496</v>
-      </c>
-      <c r="AL108" t="s">
-        <v>496</v>
-      </c>
       <c r="AM108">
         <v>0</v>
       </c>
@@ -16708,12 +15167,6 @@
       </c>
       <c r="AP108">
         <v>0</v>
-      </c>
-      <c r="AQ108" t="s">
-        <v>496</v>
-      </c>
-      <c r="AR108" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="109" spans="2:44">
@@ -16747,9 +15200,6 @@
       <c r="K109">
         <v>5</v>
       </c>
-      <c r="L109" t="s">
-        <v>496</v>
-      </c>
       <c r="M109">
         <v>26.5</v>
       </c>
@@ -17113,9 +15563,6 @@
       <c r="H112">
         <v>26</v>
       </c>
-      <c r="I112" t="s">
-        <v>496</v>
-      </c>
       <c r="J112">
         <v>7.96</v>
       </c>
@@ -17142,9 +15589,6 @@
       </c>
       <c r="R112">
         <v>0.06</v>
-      </c>
-      <c r="S112" t="s">
-        <v>496</v>
       </c>
       <c r="T112">
         <v>9.891</v>
@@ -17372,9 +15816,6 @@
       <c r="K114">
         <v>0.2</v>
       </c>
-      <c r="L114" t="s">
-        <v>496</v>
-      </c>
       <c r="M114">
         <v>26.21</v>
       </c>
@@ -17506,9 +15947,6 @@
       <c r="N115">
         <v>22.54</v>
       </c>
-      <c r="O115" t="s">
-        <v>496</v>
-      </c>
       <c r="P115">
         <v>0.8</v>
       </c>
@@ -17634,15 +16072,6 @@
       <c r="O116">
         <v>0.04</v>
       </c>
-      <c r="P116" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q116" t="s">
-        <v>496</v>
-      </c>
-      <c r="R116" t="s">
-        <v>496</v>
-      </c>
       <c r="S116">
         <v>8.5470000000000006</v>
       </c>
@@ -17872,9 +16301,6 @@
       <c r="K118">
         <v>0.1</v>
       </c>
-      <c r="L118" t="s">
-        <v>496</v>
-      </c>
       <c r="M118">
         <v>28.8</v>
       </c>
@@ -17886,9 +16312,6 @@
       </c>
       <c r="P118">
         <v>4.9000000000000004</v>
-      </c>
-      <c r="Q118" t="s">
-        <v>496</v>
       </c>
       <c r="R118">
         <v>0.9</v>
@@ -17988,9 +16411,6 @@
       <c r="H119">
         <v>30</v>
       </c>
-      <c r="I119" t="s">
-        <v>496</v>
-      </c>
       <c r="J119">
         <v>5.3</v>
       </c>
@@ -18014,9 +16434,6 @@
       </c>
       <c r="Q119">
         <v>0.75600000000000001</v>
-      </c>
-      <c r="R119" t="s">
-        <v>496</v>
       </c>
       <c r="S119">
         <v>28.596</v>
@@ -18122,9 +16539,6 @@
       <c r="K120">
         <v>14</v>
       </c>
-      <c r="L120" t="s">
-        <v>496</v>
-      </c>
       <c r="M120">
         <v>25.24</v>
       </c>
@@ -18268,9 +16682,6 @@
       <c r="R121">
         <v>0.02</v>
       </c>
-      <c r="S121" t="s">
-        <v>496</v>
-      </c>
       <c r="T121">
         <v>13.590999999999999</v>
       </c>
@@ -18363,9 +16774,6 @@
       <c r="H122">
         <v>11</v>
       </c>
-      <c r="I122" t="s">
-        <v>496</v>
-      </c>
       <c r="J122">
         <v>10.5</v>
       </c>
@@ -18392,9 +16800,6 @@
       </c>
       <c r="R122">
         <v>0.02</v>
-      </c>
-      <c r="S122" t="s">
-        <v>496</v>
       </c>
       <c r="T122">
         <v>3.3000000000000002E-2</v>
@@ -18488,18 +16893,12 @@
       <c r="H123">
         <v>2</v>
       </c>
-      <c r="I123" t="s">
-        <v>496</v>
-      </c>
       <c r="J123">
         <v>0.6</v>
       </c>
       <c r="K123">
         <v>0.7</v>
       </c>
-      <c r="L123" t="s">
-        <v>496</v>
-      </c>
       <c r="M123">
         <v>19.3</v>
       </c>
@@ -18517,9 +16916,6 @@
       </c>
       <c r="R123">
         <v>0.02</v>
-      </c>
-      <c r="S123" t="s">
-        <v>496</v>
       </c>
       <c r="T123">
         <v>8.8040000000000003</v>
@@ -18607,9 +17003,6 @@
       <c r="F124">
         <v>25.772591670000001</v>
       </c>
-      <c r="G124" t="s">
-        <v>496</v>
-      </c>
       <c r="H124">
         <v>25</v>
       </c>
@@ -18639,9 +17032,6 @@
       </c>
       <c r="Q124">
         <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="R124" t="s">
-        <v>496</v>
       </c>
       <c r="S124">
         <v>4.4459999999999997</v>
@@ -18765,9 +17155,6 @@
       <c r="Q125">
         <v>1.9E-2</v>
       </c>
-      <c r="R125" t="s">
-        <v>496</v>
-      </c>
       <c r="S125">
         <v>5.0410000000000004</v>
       </c>
@@ -18872,9 +17259,6 @@
       <c r="K126">
         <v>2</v>
       </c>
-      <c r="L126" t="s">
-        <v>496</v>
-      </c>
       <c r="M126">
         <v>19.600000000000001</v>
       </c>
@@ -18889,12 +17273,6 @@
       </c>
       <c r="Q126">
         <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="R126" t="s">
-        <v>496</v>
-      </c>
-      <c r="S126" t="s">
-        <v>496</v>
       </c>
       <c r="T126">
         <v>60.351999999999997</v>
@@ -18982,15 +17360,9 @@
       <c r="F127">
         <v>25.560388889999999</v>
       </c>
-      <c r="G127" t="s">
-        <v>496</v>
-      </c>
       <c r="H127">
         <v>38</v>
       </c>
-      <c r="I127" t="s">
-        <v>496</v>
-      </c>
       <c r="J127">
         <v>3.8</v>
       </c>
@@ -19086,9 +17458,6 @@
       </c>
       <c r="AQ127">
         <v>0</v>
-      </c>
-      <c r="AR127" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="128" spans="2:44">
@@ -19113,18 +17482,12 @@
       <c r="H128">
         <v>2</v>
       </c>
-      <c r="I128" t="s">
-        <v>496</v>
-      </c>
       <c r="J128">
         <v>0.9</v>
       </c>
       <c r="K128">
         <v>1.5</v>
       </c>
-      <c r="L128" t="s">
-        <v>496</v>
-      </c>
       <c r="M128">
         <v>19.8</v>
       </c>
@@ -19139,12 +17502,6 @@
       </c>
       <c r="Q128">
         <v>0.01</v>
-      </c>
-      <c r="R128" t="s">
-        <v>496</v>
-      </c>
-      <c r="S128" t="s">
-        <v>496</v>
       </c>
       <c r="T128">
         <v>2.3690000000000002</v>
@@ -19256,57 +17613,6 @@
       <c r="N129">
         <v>18.329999999999998</v>
       </c>
-      <c r="O129" t="s">
-        <v>496</v>
-      </c>
-      <c r="P129" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q129" t="s">
-        <v>496</v>
-      </c>
-      <c r="R129" t="s">
-        <v>496</v>
-      </c>
-      <c r="S129" t="s">
-        <v>496</v>
-      </c>
-      <c r="T129" t="s">
-        <v>496</v>
-      </c>
-      <c r="U129" t="s">
-        <v>496</v>
-      </c>
-      <c r="V129" t="s">
-        <v>496</v>
-      </c>
-      <c r="W129" t="s">
-        <v>496</v>
-      </c>
-      <c r="X129" t="s">
-        <v>496</v>
-      </c>
-      <c r="Y129" t="s">
-        <v>496</v>
-      </c>
-      <c r="Z129" t="s">
-        <v>496</v>
-      </c>
-      <c r="AA129" t="s">
-        <v>496</v>
-      </c>
-      <c r="AB129" t="s">
-        <v>496</v>
-      </c>
-      <c r="AC129" t="s">
-        <v>496</v>
-      </c>
-      <c r="AD129" t="s">
-        <v>496</v>
-      </c>
-      <c r="AE129" t="s">
-        <v>496</v>
-      </c>
       <c r="AH129">
         <v>8.9999999999999993E-3</v>
       </c>
@@ -19363,9 +17669,6 @@
       <c r="H130">
         <v>15</v>
       </c>
-      <c r="I130" t="s">
-        <v>496</v>
-      </c>
       <c r="J130">
         <v>2</v>
       </c>
@@ -19381,17 +17684,8 @@
       <c r="N130">
         <v>18.850000000000001</v>
       </c>
-      <c r="O130" t="s">
-        <v>496</v>
-      </c>
-      <c r="P130" t="s">
-        <v>496</v>
-      </c>
       <c r="Q130">
         <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="R130" t="s">
-        <v>496</v>
       </c>
       <c r="S130">
         <v>3.9180000000000001</v>
@@ -19488,9 +17782,6 @@
       <c r="H131">
         <v>92</v>
       </c>
-      <c r="I131" t="s">
-        <v>496</v>
-      </c>
       <c r="J131">
         <v>7.3</v>
       </c>
@@ -19509,14 +17800,8 @@
       <c r="O131">
         <v>0.13</v>
       </c>
-      <c r="P131" t="s">
-        <v>496</v>
-      </c>
       <c r="Q131">
         <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="R131" t="s">
-        <v>496</v>
       </c>
       <c r="S131">
         <v>10.24</v>
@@ -19643,9 +17928,6 @@
       <c r="R132">
         <v>0.18</v>
       </c>
-      <c r="S132" t="s">
-        <v>496</v>
-      </c>
       <c r="T132">
         <v>25.042000000000002</v>
       </c>
@@ -19762,9 +18044,6 @@
       <c r="P133">
         <v>1.5</v>
       </c>
-      <c r="Q133" t="s">
-        <v>496</v>
-      </c>
       <c r="R133">
         <v>0.02</v>
       </c>
@@ -19997,9 +18276,6 @@
       <c r="K135">
         <v>6.5</v>
       </c>
-      <c r="L135" t="s">
-        <v>496</v>
-      </c>
       <c r="M135">
         <v>16.7</v>
       </c>
@@ -20122,9 +18398,6 @@
       <c r="K136">
         <v>9</v>
       </c>
-      <c r="L136" t="s">
-        <v>496</v>
-      </c>
       <c r="M136">
         <v>29.16</v>
       </c>
@@ -20133,9 +18406,6 @@
       </c>
       <c r="O136">
         <v>0.04</v>
-      </c>
-      <c r="P136" t="s">
-        <v>496</v>
       </c>
       <c r="Q136">
         <v>3.2000000000000001E-2</v>
@@ -20247,98 +18517,11 @@
       <c r="K137">
         <v>5.3</v>
       </c>
-      <c r="L137" t="s">
-        <v>496</v>
-      </c>
       <c r="M137">
         <v>34</v>
       </c>
       <c r="N137">
         <v>34</v>
-      </c>
-      <c r="O137" t="s">
-        <v>496</v>
-      </c>
-      <c r="P137" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q137" t="s">
-        <v>496</v>
-      </c>
-      <c r="R137" t="s">
-        <v>496</v>
-      </c>
-      <c r="S137" t="s">
-        <v>496</v>
-      </c>
-      <c r="T137" t="s">
-        <v>496</v>
-      </c>
-      <c r="U137" t="s">
-        <v>496</v>
-      </c>
-      <c r="V137" t="s">
-        <v>496</v>
-      </c>
-      <c r="W137" t="s">
-        <v>496</v>
-      </c>
-      <c r="X137" t="s">
-        <v>496</v>
-      </c>
-      <c r="Y137" t="s">
-        <v>496</v>
-      </c>
-      <c r="Z137" t="s">
-        <v>496</v>
-      </c>
-      <c r="AA137" t="s">
-        <v>496</v>
-      </c>
-      <c r="AB137" t="s">
-        <v>496</v>
-      </c>
-      <c r="AC137" t="s">
-        <v>496</v>
-      </c>
-      <c r="AD137" t="s">
-        <v>496</v>
-      </c>
-      <c r="AE137" t="s">
-        <v>496</v>
-      </c>
-      <c r="AH137" t="s">
-        <v>496</v>
-      </c>
-      <c r="AI137" t="s">
-        <v>496</v>
-      </c>
-      <c r="AJ137" t="s">
-        <v>496</v>
-      </c>
-      <c r="AK137" t="s">
-        <v>496</v>
-      </c>
-      <c r="AL137" t="s">
-        <v>496</v>
-      </c>
-      <c r="AM137" t="s">
-        <v>496</v>
-      </c>
-      <c r="AN137" t="s">
-        <v>496</v>
-      </c>
-      <c r="AO137" t="s">
-        <v>496</v>
-      </c>
-      <c r="AP137" t="s">
-        <v>496</v>
-      </c>
-      <c r="AQ137" t="s">
-        <v>496</v>
-      </c>
-      <c r="AR137" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="138" spans="2:44">
@@ -20372,9 +18555,6 @@
       <c r="K138">
         <v>14</v>
       </c>
-      <c r="L138" t="s">
-        <v>496</v>
-      </c>
       <c r="M138">
         <v>24.9</v>
       </c>
@@ -20384,17 +18564,11 @@
       <c r="O138">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="P138" t="s">
-        <v>496</v>
-      </c>
       <c r="Q138">
         <v>0.36399999999999999</v>
       </c>
       <c r="R138">
         <v>0.02</v>
-      </c>
-      <c r="S138" t="s">
-        <v>496</v>
       </c>
       <c r="T138">
         <v>0.192</v>
@@ -20488,27 +18662,18 @@
       <c r="H139">
         <v>52</v>
       </c>
-      <c r="I139" t="s">
-        <v>496</v>
-      </c>
       <c r="J139">
         <v>5</v>
       </c>
       <c r="K139">
         <v>12</v>
       </c>
-      <c r="L139" t="s">
-        <v>496</v>
-      </c>
       <c r="M139">
         <v>27.9</v>
       </c>
       <c r="N139">
         <v>22.94</v>
       </c>
-      <c r="O139" t="s">
-        <v>496</v>
-      </c>
       <c r="P139">
         <v>0.9</v>
       </c>
@@ -20517,9 +18682,6 @@
       </c>
       <c r="R139">
         <v>0.06</v>
-      </c>
-      <c r="S139" t="s">
-        <v>496</v>
       </c>
       <c r="T139">
         <v>1.119</v>
@@ -20613,27 +18775,18 @@
       <c r="H140">
         <v>40</v>
       </c>
-      <c r="I140" t="s">
-        <v>496</v>
-      </c>
       <c r="J140">
         <v>7</v>
       </c>
       <c r="K140">
         <v>20</v>
       </c>
-      <c r="L140" t="s">
-        <v>496</v>
-      </c>
       <c r="M140">
         <v>22.3</v>
       </c>
       <c r="N140">
         <v>20.02</v>
       </c>
-      <c r="O140" t="s">
-        <v>496</v>
-      </c>
       <c r="P140">
         <v>0.1</v>
       </c>
@@ -20642,9 +18795,6 @@
       </c>
       <c r="R140">
         <v>0.04</v>
-      </c>
-      <c r="S140" t="s">
-        <v>496</v>
       </c>
       <c r="T140">
         <v>1.0189999999999999</v>
@@ -20747,18 +18897,12 @@
       <c r="K141">
         <v>4</v>
       </c>
-      <c r="L141" t="s">
-        <v>496</v>
-      </c>
       <c r="M141">
         <v>25.9</v>
       </c>
       <c r="N141">
         <v>25.68</v>
       </c>
-      <c r="O141" t="s">
-        <v>496</v>
-      </c>
       <c r="P141">
         <v>0.6</v>
       </c>
@@ -20767,9 +18911,6 @@
       </c>
       <c r="R141">
         <v>0.1</v>
-      </c>
-      <c r="S141" t="s">
-        <v>496</v>
       </c>
       <c r="T141">
         <v>0.56599999999999995</v>
@@ -20872,9 +19013,6 @@
       <c r="K142">
         <v>8</v>
       </c>
-      <c r="L142" t="s">
-        <v>496</v>
-      </c>
       <c r="M142">
         <v>26.3</v>
       </c>
@@ -20892,9 +19030,6 @@
       </c>
       <c r="R142">
         <v>0.03</v>
-      </c>
-      <c r="S142" t="s">
-        <v>496</v>
       </c>
       <c r="T142">
         <v>7.5220000000000002</v>
@@ -20997,9 +19132,6 @@
       <c r="K143">
         <v>5</v>
       </c>
-      <c r="L143" t="s">
-        <v>496</v>
-      </c>
       <c r="M143">
         <v>24.6</v>
       </c>
@@ -21017,9 +19149,6 @@
       </c>
       <c r="R143">
         <v>0.1</v>
-      </c>
-      <c r="S143" t="s">
-        <v>496</v>
       </c>
       <c r="T143">
         <v>9.5410000000000004</v>
@@ -21122,9 +19251,6 @@
       <c r="K144">
         <v>4</v>
       </c>
-      <c r="L144" t="s">
-        <v>496</v>
-      </c>
       <c r="M144">
         <v>28</v>
       </c>
@@ -21142,9 +19268,6 @@
       </c>
       <c r="R144">
         <v>0.05</v>
-      </c>
-      <c r="S144" t="s">
-        <v>496</v>
       </c>
       <c r="T144">
         <v>3.9060000000000001</v>
@@ -21247,29 +19370,17 @@
       <c r="K145">
         <v>12</v>
       </c>
-      <c r="L145" t="s">
-        <v>496</v>
-      </c>
       <c r="M145">
         <v>21.7</v>
       </c>
       <c r="N145">
         <v>16.93</v>
       </c>
-      <c r="O145" t="s">
-        <v>496</v>
-      </c>
-      <c r="P145" t="s">
-        <v>496</v>
-      </c>
       <c r="Q145">
         <v>0.38900000000000001</v>
       </c>
       <c r="R145">
         <v>0.03</v>
-      </c>
-      <c r="S145" t="s">
-        <v>496</v>
       </c>
       <c r="T145">
         <v>1.28</v>
@@ -21381,90 +19492,6 @@
       <c r="N146">
         <v>24.7</v>
       </c>
-      <c r="O146" t="s">
-        <v>496</v>
-      </c>
-      <c r="P146" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q146" t="s">
-        <v>496</v>
-      </c>
-      <c r="R146" t="s">
-        <v>496</v>
-      </c>
-      <c r="S146" t="s">
-        <v>496</v>
-      </c>
-      <c r="T146" t="s">
-        <v>496</v>
-      </c>
-      <c r="U146" t="s">
-        <v>496</v>
-      </c>
-      <c r="V146" t="s">
-        <v>496</v>
-      </c>
-      <c r="W146" t="s">
-        <v>496</v>
-      </c>
-      <c r="X146" t="s">
-        <v>496</v>
-      </c>
-      <c r="Y146" t="s">
-        <v>496</v>
-      </c>
-      <c r="Z146" t="s">
-        <v>496</v>
-      </c>
-      <c r="AA146" t="s">
-        <v>496</v>
-      </c>
-      <c r="AB146" t="s">
-        <v>496</v>
-      </c>
-      <c r="AC146" t="s">
-        <v>496</v>
-      </c>
-      <c r="AD146" t="s">
-        <v>496</v>
-      </c>
-      <c r="AE146" t="s">
-        <v>496</v>
-      </c>
-      <c r="AH146" t="s">
-        <v>496</v>
-      </c>
-      <c r="AI146" t="s">
-        <v>496</v>
-      </c>
-      <c r="AJ146" t="s">
-        <v>496</v>
-      </c>
-      <c r="AK146" t="s">
-        <v>496</v>
-      </c>
-      <c r="AL146" t="s">
-        <v>496</v>
-      </c>
-      <c r="AM146" t="s">
-        <v>496</v>
-      </c>
-      <c r="AN146" t="s">
-        <v>496</v>
-      </c>
-      <c r="AO146" t="s">
-        <v>496</v>
-      </c>
-      <c r="AP146" t="s">
-        <v>496</v>
-      </c>
-      <c r="AQ146" t="s">
-        <v>496</v>
-      </c>
-      <c r="AR146" t="s">
-        <v>496</v>
-      </c>
     </row>
     <row r="147" spans="2:44">
       <c r="B147" s="15">
@@ -21497,9 +19524,6 @@
       <c r="K147">
         <v>3.5</v>
       </c>
-      <c r="L147" t="s">
-        <v>496</v>
-      </c>
       <c r="M147">
         <v>24.8</v>
       </c>
@@ -21622,18 +19646,12 @@
       <c r="K148">
         <v>4</v>
       </c>
-      <c r="L148" t="s">
-        <v>496</v>
-      </c>
       <c r="M148">
         <v>24.3</v>
       </c>
       <c r="N148">
         <v>24.3</v>
       </c>
-      <c r="O148" t="s">
-        <v>496</v>
-      </c>
       <c r="P148">
         <v>0.2</v>
       </c>
@@ -21642,9 +19660,6 @@
       </c>
       <c r="R148">
         <v>0.08</v>
-      </c>
-      <c r="S148" t="s">
-        <v>496</v>
       </c>
       <c r="T148">
         <v>3.67</v>
@@ -21747,9 +19762,6 @@
       <c r="K149">
         <v>15</v>
       </c>
-      <c r="L149" t="s">
-        <v>496</v>
-      </c>
       <c r="M149">
         <v>25.9</v>
       </c>
@@ -21767,9 +19779,6 @@
       </c>
       <c r="R149">
         <v>0.03</v>
-      </c>
-      <c r="S149" t="s">
-        <v>496</v>
       </c>
       <c r="T149">
         <v>0.17199999999999999</v>
@@ -21860,12 +19869,6 @@
       <c r="G150">
         <v>123</v>
       </c>
-      <c r="H150" t="s">
-        <v>496</v>
-      </c>
-      <c r="I150" t="s">
-        <v>496</v>
-      </c>
       <c r="J150">
         <v>0.3</v>
       </c>
@@ -21887,9 +19890,6 @@
       <c r="P150">
         <v>1.9</v>
       </c>
-      <c r="Q150" t="s">
-        <v>496</v>
-      </c>
       <c r="R150">
         <v>0.12</v>
       </c>
@@ -21932,21 +19932,6 @@
       <c r="AE150">
         <v>0</v>
       </c>
-      <c r="AH150" t="s">
-        <v>496</v>
-      </c>
-      <c r="AI150" t="s">
-        <v>496</v>
-      </c>
-      <c r="AJ150" t="s">
-        <v>496</v>
-      </c>
-      <c r="AK150" t="s">
-        <v>496</v>
-      </c>
-      <c r="AL150" t="s">
-        <v>496</v>
-      </c>
       <c r="AM150">
         <v>0</v>
       </c>
@@ -21958,12 +19943,6 @@
       </c>
       <c r="AP150">
         <v>0</v>
-      </c>
-      <c r="AQ150" t="s">
-        <v>496</v>
-      </c>
-      <c r="AR150" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="151" spans="2:44">
@@ -21982,9 +19961,6 @@
       <c r="F151">
         <v>18.613861109999998</v>
       </c>
-      <c r="G151" t="s">
-        <v>496</v>
-      </c>
       <c r="H151">
         <v>2</v>
       </c>
@@ -22006,14 +19982,8 @@
       <c r="N151">
         <v>27.38</v>
       </c>
-      <c r="O151" t="s">
-        <v>496</v>
-      </c>
       <c r="P151">
         <v>1.3</v>
-      </c>
-      <c r="Q151" t="s">
-        <v>496</v>
       </c>
       <c r="R151">
         <v>0.03</v>
@@ -22110,12 +20080,6 @@
       <c r="G152">
         <v>129</v>
       </c>
-      <c r="H152" t="s">
-        <v>496</v>
-      </c>
-      <c r="I152" t="s">
-        <v>496</v>
-      </c>
       <c r="J152">
         <v>0.41</v>
       </c>
@@ -22136,9 +20100,6 @@
       </c>
       <c r="P152">
         <v>1.2</v>
-      </c>
-      <c r="Q152" t="s">
-        <v>496</v>
       </c>
       <c r="R152">
         <v>0.02</v>
@@ -22271,18 +20232,6 @@
       <c r="S153">
         <v>8.4659999999999993</v>
       </c>
-      <c r="T153" t="s">
-        <v>496</v>
-      </c>
-      <c r="U153" t="s">
-        <v>496</v>
-      </c>
-      <c r="V153" t="s">
-        <v>496</v>
-      </c>
-      <c r="W153" t="s">
-        <v>496</v>
-      </c>
       <c r="X153">
         <v>0.105</v>
       </c>
@@ -22381,9 +20330,6 @@
       <c r="N154">
         <v>14.36</v>
       </c>
-      <c r="O154" t="s">
-        <v>496</v>
-      </c>
       <c r="P154">
         <v>1.1000000000000001</v>
       </c>
@@ -22482,23 +20428,11 @@
       <c r="F155">
         <v>-6.7122222220000003</v>
       </c>
-      <c r="G155" t="s">
-        <v>496</v>
-      </c>
-      <c r="H155" t="s">
-        <v>496</v>
-      </c>
-      <c r="I155" t="s">
-        <v>496</v>
-      </c>
       <c r="J155">
         <v>0.64</v>
       </c>
       <c r="K155">
         <v>9</v>
-      </c>
-      <c r="L155" t="s">
-        <v>496</v>
       </c>
       <c r="M155">
         <v>14.8</v>
@@ -22759,14 +20693,8 @@
       <c r="O157">
         <v>0.02</v>
       </c>
-      <c r="P157" t="s">
-        <v>496</v>
-      </c>
       <c r="Q157">
         <v>0.11899999999999999</v>
-      </c>
-      <c r="R157" t="s">
-        <v>496</v>
       </c>
       <c r="S157">
         <v>6.0869999999999997</v>
@@ -22884,14 +20812,8 @@
       <c r="O158">
         <v>0.08</v>
       </c>
-      <c r="P158" t="s">
-        <v>496</v>
-      </c>
       <c r="Q158">
         <v>6.2E-2</v>
-      </c>
-      <c r="R158" t="s">
-        <v>496</v>
       </c>
       <c r="S158">
         <v>5.0259999999999998</v>
@@ -23009,9 +20931,6 @@
       <c r="O159">
         <v>0.02</v>
       </c>
-      <c r="P159" t="s">
-        <v>496</v>
-      </c>
       <c r="Q159">
         <v>0.121</v>
       </c>
@@ -23259,9 +21178,6 @@
       <c r="O161">
         <v>0.05</v>
       </c>
-      <c r="P161" t="s">
-        <v>496</v>
-      </c>
       <c r="Q161">
         <v>0.23499999999999999</v>
       </c>
@@ -23381,20 +21297,11 @@
       <c r="N162">
         <v>20.53</v>
       </c>
-      <c r="O162" t="s">
-        <v>496</v>
-      </c>
-      <c r="P162" t="s">
-        <v>496</v>
-      </c>
       <c r="Q162">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="R162">
         <v>0.08</v>
-      </c>
-      <c r="S162" t="s">
-        <v>496</v>
       </c>
       <c r="T162">
         <v>4.0960000000000001</v>
@@ -23515,9 +21422,6 @@
       <c r="Q163">
         <v>0.24199999999999999</v>
       </c>
-      <c r="R163" t="s">
-        <v>496</v>
-      </c>
       <c r="S163">
         <v>5.524</v>
       </c>
@@ -23631,20 +21535,11 @@
       <c r="N164">
         <v>19.36</v>
       </c>
-      <c r="O164" t="s">
-        <v>496</v>
-      </c>
       <c r="P164">
         <v>0.4</v>
       </c>
-      <c r="Q164" t="s">
-        <v>496</v>
-      </c>
       <c r="R164">
         <v>0.02</v>
-      </c>
-      <c r="S164" t="s">
-        <v>496</v>
       </c>
       <c r="T164">
         <v>1.6879999999999999</v>
@@ -23756,20 +21651,11 @@
       <c r="N165">
         <v>19.43</v>
       </c>
-      <c r="O165" t="s">
-        <v>496</v>
-      </c>
       <c r="P165">
         <v>0.8</v>
       </c>
-      <c r="Q165" t="s">
-        <v>496</v>
-      </c>
       <c r="R165">
         <v>0.04</v>
-      </c>
-      <c r="S165" t="s">
-        <v>496</v>
       </c>
       <c r="T165">
         <v>65.37</v>
@@ -23887,9 +21773,6 @@
       <c r="P166">
         <v>1.6</v>
       </c>
-      <c r="Q166" t="s">
-        <v>496</v>
-      </c>
       <c r="R166">
         <v>0.02</v>
       </c>
@@ -24143,9 +22026,6 @@
       <c r="R168">
         <v>0.68</v>
       </c>
-      <c r="S168" t="s">
-        <v>496</v>
-      </c>
       <c r="T168">
         <v>36.874000000000002</v>
       </c>
@@ -24262,9 +22142,6 @@
       <c r="P169">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q169" t="s">
-        <v>496</v>
-      </c>
       <c r="R169">
         <v>0.03</v>
       </c>
@@ -24372,9 +22249,6 @@
       <c r="K170">
         <v>4</v>
       </c>
-      <c r="L170" t="s">
-        <v>496</v>
-      </c>
       <c r="M170">
         <v>16.8</v>
       </c>
@@ -24387,14 +22261,8 @@
       <c r="P170">
         <v>0.6</v>
       </c>
-      <c r="Q170" t="s">
-        <v>496</v>
-      </c>
       <c r="R170">
         <v>0.02</v>
-      </c>
-      <c r="S170" t="s">
-        <v>496</v>
       </c>
       <c r="T170">
         <v>34.594000000000001</v>
@@ -24497,9 +22365,6 @@
       <c r="K171">
         <v>3</v>
       </c>
-      <c r="L171" t="s">
-        <v>496</v>
-      </c>
       <c r="M171">
         <v>17.600000000000001</v>
       </c>
@@ -24637,14 +22502,8 @@
       <c r="P172">
         <v>1.2</v>
       </c>
-      <c r="Q172" t="s">
-        <v>496</v>
-      </c>
       <c r="R172">
         <v>0.28999999999999998</v>
-      </c>
-      <c r="S172" t="s">
-        <v>496</v>
       </c>
       <c r="T172">
         <v>35.012999999999998</v>
@@ -24747,9 +22606,6 @@
       <c r="K173">
         <v>1.2</v>
       </c>
-      <c r="L173" t="s">
-        <v>496</v>
-      </c>
       <c r="M173">
         <v>21.2</v>
       </c>
@@ -24762,14 +22618,8 @@
       <c r="P173">
         <v>1</v>
       </c>
-      <c r="Q173" t="s">
-        <v>496</v>
-      </c>
       <c r="R173">
         <v>0.03</v>
-      </c>
-      <c r="S173" t="s">
-        <v>496</v>
       </c>
       <c r="T173">
         <v>35.668999999999997</v>
@@ -24887,14 +22737,8 @@
       <c r="P174">
         <v>0.6</v>
       </c>
-      <c r="Q174" t="s">
-        <v>496</v>
-      </c>
       <c r="R174">
         <v>0.03</v>
-      </c>
-      <c r="S174" t="s">
-        <v>496</v>
       </c>
       <c r="T174">
         <v>92.959000000000003</v>
@@ -25012,9 +22856,6 @@
       <c r="P175">
         <v>0.8</v>
       </c>
-      <c r="Q175" t="s">
-        <v>496</v>
-      </c>
       <c r="R175">
         <v>0.02</v>
       </c>
@@ -25137,14 +22978,8 @@
       <c r="P176">
         <v>0.8</v>
       </c>
-      <c r="Q176" t="s">
-        <v>496</v>
-      </c>
       <c r="R176">
         <v>0.02</v>
-      </c>
-      <c r="S176" t="s">
-        <v>496</v>
       </c>
       <c r="T176">
         <v>53.622999999999998</v>
@@ -25256,14 +23091,8 @@
       <c r="N177">
         <v>19.440000000000001</v>
       </c>
-      <c r="O177" t="s">
-        <v>496</v>
-      </c>
       <c r="P177">
         <v>0.6</v>
-      </c>
-      <c r="Q177" t="s">
-        <v>496</v>
       </c>
       <c r="R177">
         <v>0.02</v>
@@ -25363,9 +23192,6 @@
       <c r="H178">
         <v>5</v>
       </c>
-      <c r="I178" t="s">
-        <v>496</v>
-      </c>
       <c r="J178">
         <v>0.26</v>
       </c>
@@ -25386,9 +23212,6 @@
       </c>
       <c r="P178">
         <v>1.8</v>
-      </c>
-      <c r="Q178" t="s">
-        <v>496</v>
       </c>
       <c r="R178">
         <v>0.02</v>
@@ -25631,9 +23454,6 @@
       <c r="N180">
         <v>22.13</v>
       </c>
-      <c r="O180" t="s">
-        <v>496</v>
-      </c>
       <c r="P180">
         <v>0.6</v>
       </c>
@@ -25768,9 +23588,6 @@
       <c r="R181">
         <v>0.03</v>
       </c>
-      <c r="S181" t="s">
-        <v>496</v>
-      </c>
       <c r="T181">
         <v>2.8420000000000001</v>
       </c>
@@ -25863,17 +23680,11 @@
       <c r="H182">
         <v>2</v>
       </c>
-      <c r="I182" t="s">
-        <v>496</v>
-      </c>
       <c r="J182">
         <v>0.2</v>
       </c>
       <c r="K182">
         <v>1.5</v>
-      </c>
-      <c r="L182" t="s">
-        <v>496</v>
       </c>
       <c r="M182">
         <v>22.51</v>
@@ -25982,9 +23793,6 @@
       <c r="F183">
         <v>5.337262</v>
       </c>
-      <c r="G183" t="s">
-        <v>496</v>
-      </c>
       <c r="H183">
         <v>31</v>
       </c>
@@ -26014,9 +23822,6 @@
       </c>
       <c r="Q183">
         <v>0.06</v>
-      </c>
-      <c r="R183" t="s">
-        <v>496</v>
       </c>
       <c r="S183">
         <v>63.820999999999998</v>
@@ -26113,9 +23918,6 @@
       <c r="H184">
         <v>25</v>
       </c>
-      <c r="I184" t="s">
-        <v>496</v>
-      </c>
       <c r="J184">
         <v>1.05</v>
       </c>
@@ -26238,9 +24040,6 @@
       <c r="H185">
         <v>18</v>
       </c>
-      <c r="I185" t="s">
-        <v>496</v>
-      </c>
       <c r="J185">
         <v>7.5</v>
       </c>
@@ -26264,9 +24063,6 @@
       </c>
       <c r="Q185">
         <v>0.39100000000000001</v>
-      </c>
-      <c r="R185" t="s">
-        <v>496</v>
       </c>
       <c r="S185">
         <v>4.319</v>
@@ -26357,9 +24153,6 @@
       <c r="F186">
         <v>5.3730289999999998</v>
       </c>
-      <c r="G186" t="s">
-        <v>496</v>
-      </c>
       <c r="H186">
         <v>2</v>
       </c>
@@ -26372,12 +24165,6 @@
       <c r="K186">
         <v>1.8</v>
       </c>
-      <c r="L186" t="s">
-        <v>496</v>
-      </c>
-      <c r="M186" t="s">
-        <v>496</v>
-      </c>
       <c r="N186">
         <v>21.17</v>
       </c>
@@ -26386,12 +24173,6 @@
       </c>
       <c r="P186">
         <v>0.6</v>
-      </c>
-      <c r="Q186" t="s">
-        <v>496</v>
-      </c>
-      <c r="R186" t="s">
-        <v>496</v>
       </c>
       <c r="S186">
         <v>6.5750000000000002</v>
@@ -26488,9 +24269,6 @@
       <c r="H187">
         <v>3</v>
       </c>
-      <c r="I187" t="s">
-        <v>496</v>
-      </c>
       <c r="J187">
         <v>0.25</v>
       </c>
@@ -26613,9 +24391,6 @@
       <c r="H188">
         <v>14</v>
       </c>
-      <c r="I188" t="s">
-        <v>496</v>
-      </c>
       <c r="J188">
         <v>3.4</v>
       </c>
@@ -26633,18 +24408,6 @@
       </c>
       <c r="O188">
         <v>0.09</v>
-      </c>
-      <c r="P188" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q188" t="s">
-        <v>496</v>
-      </c>
-      <c r="R188" t="s">
-        <v>496</v>
-      </c>
-      <c r="S188" t="s">
-        <v>496</v>
       </c>
       <c r="T188">
         <v>8.6120000000000001</v>
@@ -26738,17 +24501,11 @@
       <c r="H189">
         <v>3</v>
       </c>
-      <c r="I189" t="s">
-        <v>496</v>
-      </c>
       <c r="J189">
         <v>0.8</v>
       </c>
       <c r="K189">
         <v>2.5</v>
-      </c>
-      <c r="L189" t="s">
-        <v>496</v>
       </c>
       <c r="M189">
         <v>20.34</v>
@@ -26863,9 +24620,6 @@
       <c r="H190">
         <v>12</v>
       </c>
-      <c r="I190" t="s">
-        <v>496</v>
-      </c>
       <c r="J190">
         <v>2</v>
       </c>
@@ -26982,30 +24736,15 @@
       <c r="F191">
         <v>4.8203259999999997</v>
       </c>
-      <c r="G191" t="s">
-        <v>496</v>
-      </c>
       <c r="H191">
         <v>31</v>
       </c>
       <c r="I191">
         <v>14</v>
       </c>
-      <c r="J191" t="s">
-        <v>496</v>
-      </c>
       <c r="K191">
         <v>1</v>
       </c>
-      <c r="L191" t="s">
-        <v>496</v>
-      </c>
-      <c r="M191" t="s">
-        <v>496</v>
-      </c>
-      <c r="N191" t="s">
-        <v>496</v>
-      </c>
       <c r="O191">
         <v>0.3</v>
       </c>
@@ -27014,9 +24753,6 @@
       </c>
       <c r="Q191">
         <v>0.85</v>
-      </c>
-      <c r="R191" t="s">
-        <v>496</v>
       </c>
       <c r="S191">
         <v>161.363</v>
@@ -27113,9 +24849,6 @@
       <c r="H192">
         <v>15</v>
       </c>
-      <c r="I192" t="s">
-        <v>496</v>
-      </c>
       <c r="J192">
         <v>4.5</v>
       </c>
@@ -27133,15 +24866,6 @@
       </c>
       <c r="O192">
         <v>0.11</v>
-      </c>
-      <c r="P192" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q192" t="s">
-        <v>496</v>
-      </c>
-      <c r="R192" t="s">
-        <v>496</v>
       </c>
       <c r="S192">
         <v>6.71</v>
@@ -27238,9 +24962,6 @@
       <c r="H193">
         <v>10</v>
       </c>
-      <c r="I193" t="s">
-        <v>496</v>
-      </c>
       <c r="J193">
         <v>3.75</v>
       </c>
@@ -27258,15 +24979,6 @@
       </c>
       <c r="O193">
         <v>0.02</v>
-      </c>
-      <c r="P193" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q193" t="s">
-        <v>496</v>
-      </c>
-      <c r="R193" t="s">
-        <v>496</v>
       </c>
       <c r="S193">
         <v>4.5149999999999997</v>
@@ -27363,9 +25075,6 @@
       <c r="H194">
         <v>39</v>
       </c>
-      <c r="I194" t="s">
-        <v>496</v>
-      </c>
       <c r="J194">
         <v>4</v>
       </c>
@@ -27488,9 +25197,6 @@
       <c r="H195">
         <v>44</v>
       </c>
-      <c r="I195" t="s">
-        <v>496</v>
-      </c>
       <c r="J195">
         <v>1.7</v>
       </c>
@@ -27508,9 +25214,6 @@
       </c>
       <c r="O195">
         <v>0.16</v>
-      </c>
-      <c r="P195" t="s">
-        <v>496</v>
       </c>
       <c r="Q195">
         <v>5.1999999999999998E-2</v>
@@ -27613,9 +25316,6 @@
       <c r="H196">
         <v>30</v>
       </c>
-      <c r="I196" t="s">
-        <v>496</v>
-      </c>
       <c r="J196">
         <v>0.6</v>
       </c>
@@ -27636,9 +25336,6 @@
       </c>
       <c r="P196">
         <v>0.3</v>
-      </c>
-      <c r="Q196" t="s">
-        <v>496</v>
       </c>
       <c r="R196">
         <v>0.08</v>
@@ -27732,9 +25429,6 @@
       <c r="F197">
         <v>5.9442389999999996</v>
       </c>
-      <c r="G197" t="s">
-        <v>496</v>
-      </c>
       <c r="H197">
         <v>6</v>
       </c>
@@ -27747,12 +25441,6 @@
       <c r="K197">
         <v>4</v>
       </c>
-      <c r="L197" t="s">
-        <v>496</v>
-      </c>
-      <c r="M197" t="s">
-        <v>496</v>
-      </c>
       <c r="N197">
         <v>21.72</v>
       </c>
@@ -27761,12 +25449,6 @@
       </c>
       <c r="P197">
         <v>0.2</v>
-      </c>
-      <c r="Q197" t="s">
-        <v>496</v>
-      </c>
-      <c r="R197" t="s">
-        <v>496</v>
       </c>
       <c r="S197">
         <v>6.6890000000000001</v>
@@ -27863,18 +25545,12 @@
       <c r="H198">
         <v>8</v>
       </c>
-      <c r="I198" t="s">
-        <v>496</v>
-      </c>
       <c r="J198">
         <v>1.3</v>
       </c>
       <c r="K198">
         <v>4</v>
       </c>
-      <c r="L198" t="s">
-        <v>496</v>
-      </c>
       <c r="M198">
         <v>18.899999999999999</v>
       </c>
@@ -27890,9 +25566,6 @@
       <c r="Q198">
         <v>0.10199999999999999</v>
       </c>
-      <c r="R198" t="s">
-        <v>496</v>
-      </c>
       <c r="S198">
         <v>8.8019999999999996</v>
       </c>
@@ -27946,15 +25619,6 @@
       </c>
       <c r="AL198">
         <v>0.63560000000000005</v>
-      </c>
-      <c r="AM198" t="s">
-        <v>496</v>
-      </c>
-      <c r="AN198" t="s">
-        <v>496</v>
-      </c>
-      <c r="AO198" t="s">
-        <v>496</v>
       </c>
       <c r="AP198">
         <v>0</v>
@@ -27988,9 +25652,6 @@
       <c r="H199">
         <v>12</v>
       </c>
-      <c r="I199" t="s">
-        <v>496</v>
-      </c>
       <c r="J199">
         <v>1.2</v>
       </c>
@@ -28014,9 +25675,6 @@
       </c>
       <c r="Q199">
         <v>1.895</v>
-      </c>
-      <c r="R199" t="s">
-        <v>496</v>
       </c>
       <c r="S199">
         <v>10.41</v>
@@ -28113,9 +25771,6 @@
       <c r="H200">
         <v>3</v>
       </c>
-      <c r="I200" t="s">
-        <v>496</v>
-      </c>
       <c r="J200">
         <v>0.55000000000000004</v>
       </c>
@@ -28136,12 +25791,6 @@
       </c>
       <c r="P200">
         <v>0.6</v>
-      </c>
-      <c r="Q200" t="s">
-        <v>496</v>
-      </c>
-      <c r="R200" t="s">
-        <v>496</v>
       </c>
       <c r="S200">
         <v>10.942</v>
@@ -28238,9 +25887,6 @@
       <c r="H201">
         <v>15</v>
       </c>
-      <c r="I201" t="s">
-        <v>496</v>
-      </c>
       <c r="J201">
         <v>1.7</v>
       </c>
@@ -28264,9 +25910,6 @@
       </c>
       <c r="Q201">
         <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="R201" t="s">
-        <v>496</v>
       </c>
       <c r="S201">
         <v>13.706</v>
@@ -28363,9 +26006,6 @@
       <c r="H202">
         <v>6</v>
       </c>
-      <c r="I202" t="s">
-        <v>496</v>
-      </c>
       <c r="J202">
         <v>0.6</v>
       </c>
@@ -28389,9 +26029,6 @@
       </c>
       <c r="Q202">
         <v>0.71599999999999997</v>
-      </c>
-      <c r="R202" t="s">
-        <v>496</v>
       </c>
       <c r="S202">
         <v>7.4089999999999998</v>
@@ -28488,9 +26125,6 @@
       <c r="H203">
         <v>19</v>
       </c>
-      <c r="I203" t="s">
-        <v>496</v>
-      </c>
       <c r="J203">
         <v>1.2</v>
       </c>
@@ -28514,9 +26148,6 @@
       </c>
       <c r="Q203">
         <v>0.43099999999999999</v>
-      </c>
-      <c r="R203" t="s">
-        <v>496</v>
       </c>
       <c r="S203">
         <v>12.287000000000001</v>
@@ -28613,9 +26244,6 @@
       <c r="H204">
         <v>14</v>
       </c>
-      <c r="I204" t="s">
-        <v>496</v>
-      </c>
       <c r="J204">
         <v>1.45</v>
       </c>
@@ -28639,9 +26267,6 @@
       </c>
       <c r="Q204">
         <v>0.17299999999999999</v>
-      </c>
-      <c r="R204" t="s">
-        <v>496</v>
       </c>
       <c r="S204">
         <v>10.375999999999999</v>
@@ -28738,18 +26363,12 @@
       <c r="H205">
         <v>33</v>
       </c>
-      <c r="I205" t="s">
-        <v>496</v>
-      </c>
       <c r="J205">
         <v>1.85</v>
       </c>
       <c r="K205">
         <v>4</v>
       </c>
-      <c r="L205" t="s">
-        <v>496</v>
-      </c>
       <c r="M205">
         <v>19.14</v>
       </c>
@@ -28764,12 +26383,6 @@
       </c>
       <c r="Q205">
         <v>0.53900000000000003</v>
-      </c>
-      <c r="R205" t="s">
-        <v>496</v>
-      </c>
-      <c r="S205" t="s">
-        <v>496</v>
       </c>
       <c r="T205">
         <v>3.177</v>
@@ -28863,18 +26476,12 @@
       <c r="H206">
         <v>10</v>
       </c>
-      <c r="I206" t="s">
-        <v>496</v>
-      </c>
       <c r="J206">
         <v>1</v>
       </c>
       <c r="K206">
         <v>4</v>
       </c>
-      <c r="L206" t="s">
-        <v>496</v>
-      </c>
       <c r="M206">
         <v>18.079999999999998</v>
       </c>
@@ -28889,12 +26496,6 @@
       </c>
       <c r="Q206">
         <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="R206" t="s">
-        <v>496</v>
-      </c>
-      <c r="S206" t="s">
-        <v>496</v>
       </c>
       <c r="T206">
         <v>11.938000000000001</v>
@@ -28988,18 +26589,12 @@
       <c r="H207">
         <v>16</v>
       </c>
-      <c r="I207" t="s">
-        <v>496</v>
-      </c>
       <c r="J207">
         <v>1.4</v>
       </c>
       <c r="K207">
         <v>4</v>
       </c>
-      <c r="L207" t="s">
-        <v>496</v>
-      </c>
       <c r="M207">
         <v>19.61</v>
       </c>
@@ -29014,12 +26609,6 @@
       </c>
       <c r="Q207">
         <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="R207" t="s">
-        <v>496</v>
-      </c>
-      <c r="S207" t="s">
-        <v>496</v>
       </c>
       <c r="T207">
         <v>13.315</v>
@@ -29137,9 +26726,6 @@
       <c r="P208">
         <v>0.6</v>
       </c>
-      <c r="Q208" t="s">
-        <v>496</v>
-      </c>
       <c r="R208">
         <v>0.05</v>
       </c>
@@ -29247,9 +26833,6 @@
       <c r="K209">
         <v>0.7</v>
       </c>
-      <c r="L209" t="s">
-        <v>496</v>
-      </c>
       <c r="M209">
         <v>24</v>
       </c>
@@ -29387,9 +26970,6 @@
       <c r="P210">
         <v>0.4</v>
       </c>
-      <c r="Q210" t="s">
-        <v>496</v>
-      </c>
       <c r="R210">
         <v>0.05</v>
       </c>
@@ -29756,9 +27336,6 @@
       <c r="N213">
         <v>18.52</v>
       </c>
-      <c r="O213" t="s">
-        <v>496</v>
-      </c>
       <c r="P213">
         <v>1.8</v>
       </c>
@@ -29887,9 +27464,6 @@
       <c r="P214">
         <v>0.8</v>
       </c>
-      <c r="Q214" t="s">
-        <v>496</v>
-      </c>
       <c r="R214">
         <v>0.68</v>
       </c>
@@ -30137,9 +27711,6 @@
       <c r="P216">
         <v>0.7</v>
       </c>
-      <c r="Q216" t="s">
-        <v>496</v>
-      </c>
       <c r="R216">
         <v>0.04</v>
       </c>
@@ -30256,20 +27827,11 @@
       <c r="N217">
         <v>16.940000000000001</v>
       </c>
-      <c r="O217" t="s">
-        <v>496</v>
-      </c>
       <c r="P217">
         <v>0.2</v>
       </c>
-      <c r="Q217" t="s">
-        <v>496</v>
-      </c>
       <c r="R217">
         <v>0.03</v>
-      </c>
-      <c r="S217" t="s">
-        <v>496</v>
       </c>
       <c r="T217">
         <v>13.872999999999999</v>
@@ -30363,9 +27925,6 @@
       <c r="H218">
         <v>10</v>
       </c>
-      <c r="I218" t="s">
-        <v>496</v>
-      </c>
       <c r="J218">
         <v>0.8</v>
       </c>
@@ -30512,9 +28071,6 @@
       <c r="P219">
         <v>1.5</v>
       </c>
-      <c r="Q219" t="s">
-        <v>496</v>
-      </c>
       <c r="R219">
         <v>0.04</v>
       </c>
@@ -30646,18 +28202,6 @@
       <c r="S220">
         <v>12.45</v>
       </c>
-      <c r="T220" t="s">
-        <v>496</v>
-      </c>
-      <c r="U220" t="s">
-        <v>496</v>
-      </c>
-      <c r="V220" t="s">
-        <v>496</v>
-      </c>
-      <c r="W220" t="s">
-        <v>496</v>
-      </c>
       <c r="X220">
         <v>0.54800000000000004</v>
       </c>
@@ -30831,9 +28375,6 @@
       <c r="AO221">
         <v>0</v>
       </c>
-      <c r="AP221" t="s">
-        <v>496</v>
-      </c>
       <c r="AQ221">
         <v>0.39</v>
       </c>
@@ -30881,9 +28422,6 @@
       <c r="N222">
         <v>21.99</v>
       </c>
-      <c r="O222" t="s">
-        <v>496</v>
-      </c>
       <c r="P222">
         <v>0.8</v>
       </c>
@@ -30982,12 +28520,6 @@
       <c r="F223">
         <v>18.694790170000001</v>
       </c>
-      <c r="G223" t="s">
-        <v>496</v>
-      </c>
-      <c r="H223" t="s">
-        <v>496</v>
-      </c>
       <c r="I223">
         <v>5.2</v>
       </c>
@@ -31005,21 +28537,6 @@
       </c>
       <c r="N223">
         <v>24.2</v>
-      </c>
-      <c r="O223" t="s">
-        <v>496</v>
-      </c>
-      <c r="P223" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q223" t="s">
-        <v>496</v>
-      </c>
-      <c r="R223" t="s">
-        <v>496</v>
-      </c>
-      <c r="S223" t="s">
-        <v>496</v>
       </c>
       <c r="T223">
         <v>0.14799999999999999</v>
@@ -31131,12 +28648,6 @@
       <c r="N224">
         <v>19.079999999999998</v>
       </c>
-      <c r="O224" t="s">
-        <v>496</v>
-      </c>
-      <c r="P224" t="s">
-        <v>496</v>
-      </c>
       <c r="Q224">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -31181,39 +28692,6 @@
       </c>
       <c r="AE224">
         <v>0</v>
-      </c>
-      <c r="AH224" t="s">
-        <v>496</v>
-      </c>
-      <c r="AI224" t="s">
-        <v>496</v>
-      </c>
-      <c r="AJ224" t="s">
-        <v>496</v>
-      </c>
-      <c r="AK224" t="s">
-        <v>496</v>
-      </c>
-      <c r="AL224" t="s">
-        <v>496</v>
-      </c>
-      <c r="AM224" t="s">
-        <v>496</v>
-      </c>
-      <c r="AN224" t="s">
-        <v>496</v>
-      </c>
-      <c r="AO224" t="s">
-        <v>496</v>
-      </c>
-      <c r="AP224" t="s">
-        <v>496</v>
-      </c>
-      <c r="AQ224" t="s">
-        <v>496</v>
-      </c>
-      <c r="AR224" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="225" spans="2:44">
@@ -31381,14 +28859,8 @@
       <c r="N226">
         <v>27.48</v>
       </c>
-      <c r="O226" t="s">
-        <v>496</v>
-      </c>
       <c r="P226">
         <v>1</v>
-      </c>
-      <c r="Q226" t="s">
-        <v>496</v>
       </c>
       <c r="R226">
         <v>0.04</v>
@@ -31506,14 +28978,8 @@
       <c r="N227">
         <v>18.920000000000002</v>
       </c>
-      <c r="O227" t="s">
-        <v>496</v>
-      </c>
       <c r="P227">
         <v>0.6</v>
-      </c>
-      <c r="Q227" t="s">
-        <v>496</v>
       </c>
       <c r="R227">
         <v>0.17</v>
@@ -31631,14 +29097,8 @@
       <c r="N228">
         <v>21.93</v>
       </c>
-      <c r="O228" t="s">
-        <v>496</v>
-      </c>
       <c r="P228">
         <v>0.6</v>
-      </c>
-      <c r="Q228" t="s">
-        <v>496</v>
       </c>
       <c r="R228">
         <v>0.04</v>
@@ -31738,9 +29198,6 @@
       <c r="H229">
         <v>15</v>
       </c>
-      <c r="I229" t="s">
-        <v>496</v>
-      </c>
       <c r="J229">
         <v>2.9</v>
       </c>
@@ -31857,15 +29314,6 @@
       <c r="F230">
         <v>17.292446999999999</v>
       </c>
-      <c r="G230" t="s">
-        <v>496</v>
-      </c>
-      <c r="H230" t="s">
-        <v>496</v>
-      </c>
-      <c r="I230" t="s">
-        <v>496</v>
-      </c>
       <c r="J230">
         <v>0.2</v>
       </c>
@@ -32012,9 +29460,6 @@
       <c r="P231">
         <v>0.7</v>
       </c>
-      <c r="Q231" t="s">
-        <v>496</v>
-      </c>
       <c r="R231">
         <v>0.08</v>
       </c>
@@ -32107,12 +29552,6 @@
       <c r="F232">
         <v>16.3825</v>
       </c>
-      <c r="G232" t="s">
-        <v>496</v>
-      </c>
-      <c r="H232" t="s">
-        <v>496</v>
-      </c>
       <c r="I232">
         <v>2.6</v>
       </c>
@@ -32136,9 +29575,6 @@
       </c>
       <c r="P232">
         <v>2.2999999999999998</v>
-      </c>
-      <c r="Q232" t="s">
-        <v>496</v>
       </c>
       <c r="R232">
         <v>0.05</v>
@@ -32262,9 +29698,6 @@
       <c r="P233">
         <v>0.5</v>
       </c>
-      <c r="Q233" t="s">
-        <v>496</v>
-      </c>
       <c r="R233">
         <v>0.04</v>
       </c>
@@ -32387,12 +29820,6 @@
       <c r="P234">
         <v>0.6</v>
       </c>
-      <c r="Q234" t="s">
-        <v>496</v>
-      </c>
-      <c r="R234" t="s">
-        <v>496</v>
-      </c>
       <c r="S234">
         <v>5.2679999999999998</v>
       </c>
@@ -32482,9 +29909,6 @@
       <c r="F235">
         <v>16.970555999999998</v>
       </c>
-      <c r="G235" t="s">
-        <v>496</v>
-      </c>
       <c r="H235">
         <v>5</v>
       </c>
@@ -32497,9 +29921,6 @@
       <c r="K235">
         <v>3</v>
       </c>
-      <c r="L235" t="s">
-        <v>496</v>
-      </c>
       <c r="M235">
         <v>20.100000000000001</v>
       </c>
@@ -32511,9 +29932,6 @@
       </c>
       <c r="P235">
         <v>0.4</v>
-      </c>
-      <c r="Q235" t="s">
-        <v>496</v>
       </c>
       <c r="R235">
         <v>0.02</v>
@@ -32607,9 +30025,6 @@
       <c r="F236">
         <v>21.59222222</v>
       </c>
-      <c r="G236" t="s">
-        <v>496</v>
-      </c>
       <c r="H236">
         <v>25.9</v>
       </c>
@@ -32639,9 +30054,6 @@
       </c>
       <c r="Q236">
         <v>1.6E-2</v>
-      </c>
-      <c r="R236" t="s">
-        <v>496</v>
       </c>
       <c r="S236">
         <v>6.2770000000000001</v>
@@ -32765,9 +30177,6 @@
       <c r="Q237">
         <v>1.2E-2</v>
       </c>
-      <c r="R237" t="s">
-        <v>496</v>
-      </c>
       <c r="S237">
         <v>6.1109999999999998</v>
       </c>
@@ -32872,9 +30281,6 @@
       <c r="K238">
         <v>5</v>
       </c>
-      <c r="L238" t="s">
-        <v>496</v>
-      </c>
       <c r="M238">
         <v>21.31</v>
       </c>
@@ -32886,9 +30292,6 @@
       </c>
       <c r="P238">
         <v>1</v>
-      </c>
-      <c r="Q238" t="s">
-        <v>496</v>
       </c>
       <c r="R238">
         <v>0.02</v>
@@ -33107,15 +30510,6 @@
       <c r="F240">
         <v>20.450855000000001</v>
       </c>
-      <c r="G240" t="s">
-        <v>496</v>
-      </c>
-      <c r="H240" t="s">
-        <v>496</v>
-      </c>
-      <c r="I240" t="s">
-        <v>496</v>
-      </c>
       <c r="J240">
         <v>2</v>
       </c>
@@ -33131,14 +30525,8 @@
       <c r="N240">
         <v>20.6</v>
       </c>
-      <c r="O240" t="s">
-        <v>496</v>
-      </c>
       <c r="P240">
         <v>0.3</v>
-      </c>
-      <c r="Q240" t="s">
-        <v>496</v>
       </c>
       <c r="R240">
         <v>0.1</v>
@@ -33247,9 +30635,6 @@
       <c r="K241">
         <v>2.9</v>
       </c>
-      <c r="L241" t="s">
-        <v>496</v>
-      </c>
       <c r="M241">
         <v>26.99</v>
       </c>
@@ -33372,9 +30757,6 @@
       <c r="K242">
         <v>2</v>
       </c>
-      <c r="L242" t="s">
-        <v>496</v>
-      </c>
       <c r="M242">
         <v>24.9</v>
       </c>
@@ -33446,9 +30828,6 @@
       </c>
       <c r="AL242">
         <v>1.2578</v>
-      </c>
-      <c r="AM242" t="s">
-        <v>496</v>
       </c>
       <c r="AN242">
         <v>0</v>
@@ -33506,9 +30885,6 @@
       <c r="N243">
         <v>23.83</v>
       </c>
-      <c r="O243" t="s">
-        <v>496</v>
-      </c>
       <c r="P243">
         <v>0.5</v>
       </c>
@@ -33640,12 +31016,6 @@
       <c r="Q244">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R244" t="s">
-        <v>496</v>
-      </c>
-      <c r="S244" t="s">
-        <v>496</v>
-      </c>
       <c r="T244">
         <v>5.2160000000000002</v>
       </c>
@@ -33747,23 +31117,11 @@
       <c r="K245">
         <v>4.5</v>
       </c>
-      <c r="L245" t="s">
-        <v>496</v>
-      </c>
       <c r="M245">
         <v>20.65</v>
       </c>
       <c r="N245">
         <v>20.61</v>
-      </c>
-      <c r="O245" t="s">
-        <v>496</v>
-      </c>
-      <c r="P245" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q245" t="s">
-        <v>496</v>
       </c>
       <c r="R245">
         <v>0.02</v>
@@ -33881,20 +31239,11 @@
       <c r="N246">
         <v>17.559999999999999</v>
       </c>
-      <c r="O246" t="s">
-        <v>496</v>
-      </c>
       <c r="P246">
         <v>0.5</v>
       </c>
-      <c r="Q246" t="s">
-        <v>496</v>
-      </c>
       <c r="R246">
         <v>0.04</v>
-      </c>
-      <c r="S246" t="s">
-        <v>496</v>
       </c>
       <c r="T246">
         <v>7.2080000000000002</v>
@@ -34140,9 +31489,6 @@
       <c r="Q248">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R248" t="s">
-        <v>496</v>
-      </c>
       <c r="S248">
         <v>6.5119999999999996</v>
       </c>
@@ -34262,9 +31608,6 @@
       <c r="P249">
         <v>0.4</v>
       </c>
-      <c r="Q249" t="s">
-        <v>496</v>
-      </c>
       <c r="R249">
         <v>0.02</v>
       </c>
@@ -34381,9 +31724,6 @@
       <c r="N250">
         <v>22.34</v>
       </c>
-      <c r="O250" t="s">
-        <v>496</v>
-      </c>
       <c r="P250">
         <v>0.5</v>
       </c>
@@ -34515,9 +31855,6 @@
       <c r="Q251">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="R251" t="s">
-        <v>496</v>
-      </c>
       <c r="S251">
         <v>6.008</v>
       </c>
@@ -34622,24 +31959,15 @@
       <c r="K252">
         <v>5</v>
       </c>
-      <c r="L252" t="s">
-        <v>496</v>
-      </c>
       <c r="M252">
         <v>21.8</v>
       </c>
       <c r="N252">
         <v>21.32</v>
       </c>
-      <c r="O252" t="s">
-        <v>496</v>
-      </c>
       <c r="P252">
         <v>1.3</v>
       </c>
-      <c r="Q252" t="s">
-        <v>496</v>
-      </c>
       <c r="R252">
         <v>0.04</v>
       </c>
@@ -34681,39 +32009,6 @@
       </c>
       <c r="AE252">
         <v>0</v>
-      </c>
-      <c r="AH252" t="s">
-        <v>496</v>
-      </c>
-      <c r="AI252" t="s">
-        <v>496</v>
-      </c>
-      <c r="AJ252" t="s">
-        <v>496</v>
-      </c>
-      <c r="AK252" t="s">
-        <v>496</v>
-      </c>
-      <c r="AL252" t="s">
-        <v>496</v>
-      </c>
-      <c r="AM252" t="s">
-        <v>496</v>
-      </c>
-      <c r="AN252" t="s">
-        <v>496</v>
-      </c>
-      <c r="AO252" t="s">
-        <v>496</v>
-      </c>
-      <c r="AP252" t="s">
-        <v>496</v>
-      </c>
-      <c r="AQ252" t="s">
-        <v>496</v>
-      </c>
-      <c r="AR252" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="253" spans="2:44">
@@ -34762,9 +32057,6 @@
       <c r="P253">
         <v>1.2</v>
       </c>
-      <c r="Q253" t="s">
-        <v>496</v>
-      </c>
       <c r="R253">
         <v>0.93</v>
       </c>
@@ -34881,21 +32173,12 @@
       <c r="N254">
         <v>16.920000000000002</v>
       </c>
-      <c r="O254" t="s">
-        <v>496</v>
-      </c>
       <c r="P254">
         <v>0.6</v>
       </c>
-      <c r="Q254" t="s">
-        <v>496</v>
-      </c>
       <c r="R254">
         <v>0.12</v>
       </c>
-      <c r="S254" t="s">
-        <v>496</v>
-      </c>
       <c r="T254">
         <v>16.22</v>
       </c>
@@ -34931,39 +32214,6 @@
       </c>
       <c r="AE254">
         <v>0</v>
-      </c>
-      <c r="AH254" t="s">
-        <v>496</v>
-      </c>
-      <c r="AI254" t="s">
-        <v>496</v>
-      </c>
-      <c r="AJ254" t="s">
-        <v>496</v>
-      </c>
-      <c r="AK254" t="s">
-        <v>496</v>
-      </c>
-      <c r="AL254" t="s">
-        <v>496</v>
-      </c>
-      <c r="AM254" t="s">
-        <v>496</v>
-      </c>
-      <c r="AN254" t="s">
-        <v>496</v>
-      </c>
-      <c r="AO254" t="s">
-        <v>496</v>
-      </c>
-      <c r="AP254" t="s">
-        <v>496</v>
-      </c>
-      <c r="AQ254" t="s">
-        <v>496</v>
-      </c>
-      <c r="AR254" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="255" spans="2:44">
@@ -35006,14 +32256,8 @@
       <c r="N255">
         <v>18.920000000000002</v>
       </c>
-      <c r="O255" t="s">
-        <v>496</v>
-      </c>
       <c r="P255">
         <v>0.3</v>
-      </c>
-      <c r="Q255" t="s">
-        <v>496</v>
       </c>
       <c r="R255">
         <v>0.02</v>
@@ -35131,14 +32375,8 @@
       <c r="N256">
         <v>23.25</v>
       </c>
-      <c r="O256" t="s">
-        <v>496</v>
-      </c>
       <c r="P256">
         <v>0.6</v>
-      </c>
-      <c r="Q256" t="s">
-        <v>496</v>
       </c>
       <c r="R256">
         <v>0.06</v>
@@ -35232,9 +32470,6 @@
       <c r="F257">
         <v>19.978302280000001</v>
       </c>
-      <c r="G257" t="s">
-        <v>496</v>
-      </c>
       <c r="H257">
         <v>11</v>
       </c>
@@ -35255,21 +32490,6 @@
       </c>
       <c r="N257">
         <v>23.69</v>
-      </c>
-      <c r="O257" t="s">
-        <v>496</v>
-      </c>
-      <c r="P257" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q257" t="s">
-        <v>496</v>
-      </c>
-      <c r="R257" t="s">
-        <v>496</v>
-      </c>
-      <c r="S257" t="s">
-        <v>496</v>
       </c>
       <c r="T257">
         <v>38.200000000000003</v>
@@ -35357,9 +32577,6 @@
       <c r="F258">
         <v>23.149666669999998</v>
       </c>
-      <c r="G258" t="s">
-        <v>496</v>
-      </c>
       <c r="H258">
         <v>6</v>
       </c>
@@ -35372,24 +32589,15 @@
       <c r="K258">
         <v>1.2</v>
       </c>
-      <c r="L258" t="s">
-        <v>496</v>
-      </c>
       <c r="M258">
         <v>21</v>
       </c>
       <c r="N258">
         <v>21</v>
       </c>
-      <c r="O258" t="s">
-        <v>496</v>
-      </c>
       <c r="P258">
         <v>4.5999999999999996</v>
       </c>
-      <c r="Q258" t="s">
-        <v>496</v>
-      </c>
       <c r="R258">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -35455,9 +32663,6 @@
       </c>
       <c r="AO258">
         <v>0</v>
-      </c>
-      <c r="AP258" t="s">
-        <v>496</v>
       </c>
       <c r="AQ258">
         <v>0</v>
@@ -35512,9 +32717,6 @@
       <c r="P259">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q259" t="s">
-        <v>496</v>
-      </c>
       <c r="R259">
         <v>0.83</v>
       </c>
@@ -35622,9 +32824,6 @@
       <c r="K260">
         <v>0.9</v>
       </c>
-      <c r="L260" t="s">
-        <v>496</v>
-      </c>
       <c r="M260">
         <v>21.22</v>
       </c>
@@ -35636,9 +32835,6 @@
       </c>
       <c r="P260">
         <v>2.2999999999999998</v>
-      </c>
-      <c r="Q260" t="s">
-        <v>496</v>
       </c>
       <c r="R260">
         <v>0.04</v>
@@ -35756,9 +32952,6 @@
       <c r="N261">
         <v>17.82</v>
       </c>
-      <c r="O261" t="s">
-        <v>496</v>
-      </c>
       <c r="P261">
         <v>0.4</v>
       </c>
@@ -35806,39 +32999,6 @@
       </c>
       <c r="AE261">
         <v>0</v>
-      </c>
-      <c r="AH261" t="s">
-        <v>496</v>
-      </c>
-      <c r="AI261" t="s">
-        <v>496</v>
-      </c>
-      <c r="AJ261" t="s">
-        <v>496</v>
-      </c>
-      <c r="AK261" t="s">
-        <v>496</v>
-      </c>
-      <c r="AL261" t="s">
-        <v>496</v>
-      </c>
-      <c r="AM261" t="s">
-        <v>496</v>
-      </c>
-      <c r="AN261" t="s">
-        <v>496</v>
-      </c>
-      <c r="AO261" t="s">
-        <v>496</v>
-      </c>
-      <c r="AP261" t="s">
-        <v>496</v>
-      </c>
-      <c r="AQ261" t="s">
-        <v>496</v>
-      </c>
-      <c r="AR261" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="262" spans="2:44">
@@ -35997,9 +33157,6 @@
       <c r="K263">
         <v>3</v>
       </c>
-      <c r="L263" t="s">
-        <v>496</v>
-      </c>
       <c r="M263">
         <v>20.52</v>
       </c>
@@ -36012,14 +33169,8 @@
       <c r="P263">
         <v>0.8</v>
       </c>
-      <c r="Q263" t="s">
-        <v>496</v>
-      </c>
       <c r="R263">
         <v>0.04</v>
-      </c>
-      <c r="S263" t="s">
-        <v>496</v>
       </c>
       <c r="T263">
         <v>92.372</v>
@@ -36122,9 +33273,6 @@
       <c r="K264">
         <v>2.5</v>
       </c>
-      <c r="L264" t="s">
-        <v>496</v>
-      </c>
       <c r="M264">
         <v>22.8</v>
       </c>
@@ -36247,9 +33395,6 @@
       <c r="K265">
         <v>1.5</v>
       </c>
-      <c r="L265" t="s">
-        <v>496</v>
-      </c>
       <c r="M265">
         <v>22.03</v>
       </c>
@@ -36381,9 +33526,6 @@
       <c r="N266">
         <v>20.78</v>
       </c>
-      <c r="O266" t="s">
-        <v>496</v>
-      </c>
       <c r="P266">
         <v>0.3</v>
       </c>
@@ -36497,23 +33639,14 @@
       <c r="K267">
         <v>9</v>
       </c>
-      <c r="L267" t="s">
-        <v>496</v>
-      </c>
       <c r="M267">
         <v>20.92</v>
       </c>
       <c r="N267">
         <v>18.91</v>
       </c>
-      <c r="O267" t="s">
-        <v>496</v>
-      </c>
       <c r="P267">
         <v>0.6</v>
-      </c>
-      <c r="Q267" t="s">
-        <v>496</v>
       </c>
       <c r="R267">
         <v>0.13</v>
@@ -36622,9 +33755,6 @@
       <c r="K268">
         <v>10</v>
       </c>
-      <c r="L268" t="s">
-        <v>496</v>
-      </c>
       <c r="M268">
         <v>21.42</v>
       </c>
@@ -36636,9 +33766,6 @@
       </c>
       <c r="P268">
         <v>0.4</v>
-      </c>
-      <c r="Q268" t="s">
-        <v>496</v>
       </c>
       <c r="R268">
         <v>0.05</v>
@@ -36747,23 +33874,14 @@
       <c r="K269">
         <v>8</v>
       </c>
-      <c r="L269" t="s">
-        <v>496</v>
-      </c>
       <c r="M269">
         <v>21.52</v>
       </c>
       <c r="N269">
         <v>19.64</v>
       </c>
-      <c r="O269" t="s">
-        <v>496</v>
-      </c>
       <c r="P269">
         <v>0.3</v>
-      </c>
-      <c r="Q269" t="s">
-        <v>496</v>
       </c>
       <c r="R269">
         <v>0.03</v>
@@ -36872,23 +33990,14 @@
       <c r="K270">
         <v>10</v>
       </c>
-      <c r="L270" t="s">
-        <v>496</v>
-      </c>
       <c r="M270">
         <v>22</v>
       </c>
       <c r="N270">
         <v>18.329999999999998</v>
       </c>
-      <c r="O270" t="s">
-        <v>496</v>
-      </c>
       <c r="P270">
         <v>0.3</v>
-      </c>
-      <c r="Q270" t="s">
-        <v>496</v>
       </c>
       <c r="R270">
         <v>0.08</v>
@@ -37122,9 +34231,6 @@
       <c r="K272">
         <v>3</v>
       </c>
-      <c r="L272" t="s">
-        <v>496</v>
-      </c>
       <c r="M272">
         <v>9.1</v>
       </c>
@@ -37238,9 +34344,6 @@
       <c r="H273">
         <v>4</v>
       </c>
-      <c r="I273" t="s">
-        <v>496</v>
-      </c>
       <c r="J273">
         <v>0.3</v>
       </c>
@@ -37387,9 +34490,6 @@
       <c r="P274">
         <v>0.4</v>
       </c>
-      <c r="Q274" t="s">
-        <v>496</v>
-      </c>
       <c r="R274">
         <v>0.03</v>
       </c>
@@ -37512,14 +34612,8 @@
       <c r="P275">
         <v>1</v>
       </c>
-      <c r="Q275" t="s">
-        <v>496</v>
-      </c>
       <c r="R275">
         <v>0.02</v>
-      </c>
-      <c r="S275" t="s">
-        <v>496</v>
       </c>
       <c r="T275">
         <v>0.72599999999999998</v>
@@ -37622,9 +34716,6 @@
       <c r="K276">
         <v>10.5</v>
       </c>
-      <c r="L276" t="s">
-        <v>496</v>
-      </c>
       <c r="M276">
         <v>21.53</v>
       </c>
@@ -37643,9 +34734,6 @@
       <c r="R276">
         <v>0.04</v>
       </c>
-      <c r="S276" t="s">
-        <v>496</v>
-      </c>
       <c r="T276">
         <v>8.327</v>
       </c>
@@ -37696,18 +34784,6 @@
       </c>
       <c r="AL276">
         <v>4.1999999999999997E-3</v>
-      </c>
-      <c r="AM276" t="s">
-        <v>496</v>
-      </c>
-      <c r="AN276" t="s">
-        <v>496</v>
-      </c>
-      <c r="AO276" t="s">
-        <v>496</v>
-      </c>
-      <c r="AP276" t="s">
-        <v>496</v>
       </c>
       <c r="AQ276">
         <v>0</v>
@@ -37738,17 +34814,11 @@
       <c r="H277">
         <v>6</v>
       </c>
-      <c r="I277" t="s">
-        <v>496</v>
-      </c>
       <c r="J277">
         <v>2.5</v>
       </c>
       <c r="K277">
         <v>5.5</v>
-      </c>
-      <c r="L277" t="s">
-        <v>496</v>
       </c>
       <c r="M277">
         <v>24.98</v>
@@ -37863,9 +34933,6 @@
       <c r="H278">
         <v>80</v>
       </c>
-      <c r="I278" t="s">
-        <v>496</v>
-      </c>
       <c r="J278">
         <v>2.5</v>
       </c>
@@ -38012,9 +35079,6 @@
       <c r="P279">
         <v>0.9</v>
       </c>
-      <c r="Q279" t="s">
-        <v>496</v>
-      </c>
       <c r="R279">
         <v>0.05</v>
       </c>
@@ -38113,17 +35177,11 @@
       <c r="H280">
         <v>4</v>
       </c>
-      <c r="I280" t="s">
-        <v>496</v>
-      </c>
       <c r="J280">
         <v>3</v>
       </c>
       <c r="K280">
         <v>3</v>
-      </c>
-      <c r="L280" t="s">
-        <v>496</v>
       </c>
       <c r="M280">
         <v>15.21</v>
@@ -38238,35 +35296,23 @@
       <c r="H281">
         <v>4</v>
       </c>
-      <c r="I281" t="s">
-        <v>496</v>
-      </c>
       <c r="J281">
         <v>1.84</v>
       </c>
       <c r="K281">
         <v>3</v>
       </c>
-      <c r="L281" t="s">
-        <v>496</v>
-      </c>
       <c r="M281">
         <v>14.8</v>
       </c>
       <c r="N281">
         <v>14.59</v>
       </c>
-      <c r="O281" t="s">
-        <v>496</v>
-      </c>
       <c r="P281">
         <v>2.4</v>
       </c>
       <c r="Q281">
         <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="R281" t="s">
-        <v>496</v>
       </c>
       <c r="S281">
         <v>6.3449999999999998</v>
@@ -38387,9 +35433,6 @@
       <c r="P282">
         <v>0.9</v>
       </c>
-      <c r="Q282" t="s">
-        <v>496</v>
-      </c>
       <c r="R282">
         <v>0.04</v>
       </c>
@@ -38518,9 +35561,6 @@
       <c r="R283">
         <v>0.03</v>
       </c>
-      <c r="S283" t="s">
-        <v>496</v>
-      </c>
       <c r="T283">
         <v>5.8680000000000003</v>
       </c>
@@ -38631,57 +35671,6 @@
       <c r="N284">
         <v>16.579999999999998</v>
       </c>
-      <c r="O284" t="s">
-        <v>496</v>
-      </c>
-      <c r="P284" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q284" t="s">
-        <v>496</v>
-      </c>
-      <c r="R284" t="s">
-        <v>496</v>
-      </c>
-      <c r="S284" t="s">
-        <v>496</v>
-      </c>
-      <c r="T284" t="s">
-        <v>496</v>
-      </c>
-      <c r="U284" t="s">
-        <v>496</v>
-      </c>
-      <c r="V284" t="s">
-        <v>496</v>
-      </c>
-      <c r="W284" t="s">
-        <v>496</v>
-      </c>
-      <c r="X284" t="s">
-        <v>496</v>
-      </c>
-      <c r="Y284" t="s">
-        <v>496</v>
-      </c>
-      <c r="Z284" t="s">
-        <v>496</v>
-      </c>
-      <c r="AA284" t="s">
-        <v>496</v>
-      </c>
-      <c r="AB284" t="s">
-        <v>496</v>
-      </c>
-      <c r="AC284" t="s">
-        <v>496</v>
-      </c>
-      <c r="AD284" t="s">
-        <v>496</v>
-      </c>
-      <c r="AE284" t="s">
-        <v>496</v>
-      </c>
       <c r="AH284">
         <v>2E-3</v>
       </c>
@@ -38708,12 +35697,6 @@
       </c>
       <c r="AP284">
         <v>0</v>
-      </c>
-      <c r="AQ284" t="s">
-        <v>496</v>
-      </c>
-      <c r="AR284" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="285" spans="2:44">
@@ -38747,66 +35730,12 @@
       <c r="K285">
         <v>1.5</v>
       </c>
-      <c r="L285" t="s">
-        <v>496</v>
-      </c>
       <c r="M285">
         <v>20.5</v>
       </c>
       <c r="N285">
         <v>20.47</v>
       </c>
-      <c r="O285" t="s">
-        <v>496</v>
-      </c>
-      <c r="P285" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q285" t="s">
-        <v>496</v>
-      </c>
-      <c r="R285" t="s">
-        <v>496</v>
-      </c>
-      <c r="S285" t="s">
-        <v>496</v>
-      </c>
-      <c r="T285" t="s">
-        <v>496</v>
-      </c>
-      <c r="U285" t="s">
-        <v>496</v>
-      </c>
-      <c r="V285" t="s">
-        <v>496</v>
-      </c>
-      <c r="W285" t="s">
-        <v>496</v>
-      </c>
-      <c r="X285" t="s">
-        <v>496</v>
-      </c>
-      <c r="Y285" t="s">
-        <v>496</v>
-      </c>
-      <c r="Z285" t="s">
-        <v>496</v>
-      </c>
-      <c r="AA285" t="s">
-        <v>496</v>
-      </c>
-      <c r="AB285" t="s">
-        <v>496</v>
-      </c>
-      <c r="AC285" t="s">
-        <v>496</v>
-      </c>
-      <c r="AD285" t="s">
-        <v>496</v>
-      </c>
-      <c r="AE285" t="s">
-        <v>496</v>
-      </c>
       <c r="AH285">
         <v>3.5000000000000003E-2</v>
       </c>
@@ -38833,12 +35762,6 @@
       </c>
       <c r="AP285">
         <v>0</v>
-      </c>
-      <c r="AQ285" t="s">
-        <v>496</v>
-      </c>
-      <c r="AR285" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="286" spans="2:44">
@@ -38872,66 +35795,12 @@
       <c r="K286">
         <v>1.5</v>
       </c>
-      <c r="L286" t="s">
-        <v>496</v>
-      </c>
       <c r="M286">
         <v>20.5</v>
       </c>
       <c r="N286">
         <v>20.47</v>
       </c>
-      <c r="O286" t="s">
-        <v>496</v>
-      </c>
-      <c r="P286" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q286" t="s">
-        <v>496</v>
-      </c>
-      <c r="R286" t="s">
-        <v>496</v>
-      </c>
-      <c r="S286" t="s">
-        <v>496</v>
-      </c>
-      <c r="T286" t="s">
-        <v>496</v>
-      </c>
-      <c r="U286" t="s">
-        <v>496</v>
-      </c>
-      <c r="V286" t="s">
-        <v>496</v>
-      </c>
-      <c r="W286" t="s">
-        <v>496</v>
-      </c>
-      <c r="X286" t="s">
-        <v>496</v>
-      </c>
-      <c r="Y286" t="s">
-        <v>496</v>
-      </c>
-      <c r="Z286" t="s">
-        <v>496</v>
-      </c>
-      <c r="AA286" t="s">
-        <v>496</v>
-      </c>
-      <c r="AB286" t="s">
-        <v>496</v>
-      </c>
-      <c r="AC286" t="s">
-        <v>496</v>
-      </c>
-      <c r="AD286" t="s">
-        <v>496</v>
-      </c>
-      <c r="AE286" t="s">
-        <v>496</v>
-      </c>
       <c r="AH286">
         <v>6.5000000000000002E-2</v>
       </c>
@@ -38958,12 +35827,6 @@
       </c>
       <c r="AP286">
         <v>0</v>
-      </c>
-      <c r="AQ286" t="s">
-        <v>496</v>
-      </c>
-      <c r="AR286" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="287" spans="2:44">
@@ -39247,9 +36110,6 @@
       <c r="K289">
         <v>2.5</v>
       </c>
-      <c r="L289" t="s">
-        <v>496</v>
-      </c>
       <c r="M289">
         <v>19.27</v>
       </c>
@@ -39264,12 +36124,6 @@
       </c>
       <c r="Q289">
         <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="R289" t="s">
-        <v>496</v>
-      </c>
-      <c r="S289" t="s">
-        <v>496</v>
       </c>
       <c r="T289">
         <v>1.2270000000000001</v>
@@ -39509,9 +36363,6 @@
       <c r="O291">
         <v>0.05</v>
       </c>
-      <c r="P291" t="s">
-        <v>496</v>
-      </c>
       <c r="Q291">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -39637,15 +36488,6 @@
       <c r="P292">
         <v>0.7</v>
       </c>
-      <c r="Q292" t="s">
-        <v>496</v>
-      </c>
-      <c r="R292" t="s">
-        <v>496</v>
-      </c>
-      <c r="S292" t="s">
-        <v>496</v>
-      </c>
       <c r="T292">
         <v>3.7770000000000001</v>
       </c>
@@ -39732,24 +36574,12 @@
       <c r="F293">
         <v>13.361499999999999</v>
       </c>
-      <c r="G293" t="s">
-        <v>496</v>
-      </c>
-      <c r="H293" t="s">
-        <v>496</v>
-      </c>
-      <c r="I293" t="s">
-        <v>496</v>
-      </c>
       <c r="J293">
         <v>0.79</v>
       </c>
       <c r="K293">
         <v>0.5</v>
       </c>
-      <c r="L293" t="s">
-        <v>496</v>
-      </c>
       <c r="M293">
         <v>17.84</v>
       </c>
@@ -39761,9 +36591,6 @@
       </c>
       <c r="P293">
         <v>0.9</v>
-      </c>
-      <c r="Q293" t="s">
-        <v>496</v>
       </c>
       <c r="R293">
         <v>0.02</v>
@@ -39857,24 +36684,12 @@
       <c r="F294">
         <v>13.209222219999999</v>
       </c>
-      <c r="G294" t="s">
-        <v>496</v>
-      </c>
-      <c r="H294" t="s">
-        <v>496</v>
-      </c>
-      <c r="I294" t="s">
-        <v>496</v>
-      </c>
       <c r="J294">
         <v>0.3</v>
       </c>
       <c r="K294">
         <v>0.5</v>
       </c>
-      <c r="L294" t="s">
-        <v>496</v>
-      </c>
       <c r="M294">
         <v>17.73</v>
       </c>
@@ -39886,12 +36701,6 @@
       </c>
       <c r="P294">
         <v>0.8</v>
-      </c>
-      <c r="Q294" t="s">
-        <v>496</v>
-      </c>
-      <c r="R294" t="s">
-        <v>496</v>
       </c>
       <c r="S294">
         <v>4.7839999999999998</v>
@@ -39997,9 +36806,6 @@
       <c r="K295">
         <v>1.5</v>
       </c>
-      <c r="L295" t="s">
-        <v>496</v>
-      </c>
       <c r="M295">
         <v>16.7</v>
       </c>
@@ -40008,9 +36814,6 @@
       </c>
       <c r="O295">
         <v>0.03</v>
-      </c>
-      <c r="P295" t="s">
-        <v>496</v>
       </c>
       <c r="Q295">
         <v>3.4000000000000002E-2</v>
@@ -40122,9 +36925,6 @@
       <c r="K296">
         <v>4</v>
       </c>
-      <c r="L296" t="s">
-        <v>496</v>
-      </c>
       <c r="M296">
         <v>18.920000000000002</v>
       </c>
@@ -40247,9 +37047,6 @@
       <c r="K297">
         <v>5</v>
       </c>
-      <c r="L297" t="s">
-        <v>496</v>
-      </c>
       <c r="M297">
         <v>17.7</v>
       </c>
@@ -40267,9 +37064,6 @@
       </c>
       <c r="R297">
         <v>0.06</v>
-      </c>
-      <c r="S297" t="s">
-        <v>496</v>
       </c>
       <c r="T297">
         <v>101.54</v>
@@ -40393,9 +37187,6 @@
       <c r="R298">
         <v>0.01</v>
       </c>
-      <c r="S298" t="s">
-        <v>496</v>
-      </c>
       <c r="T298">
         <v>2.802</v>
       </c>
@@ -40509,17 +37300,11 @@
       <c r="O299">
         <v>0.16</v>
       </c>
-      <c r="P299" t="s">
-        <v>496</v>
-      </c>
       <c r="Q299">
         <v>2.3E-2</v>
       </c>
       <c r="R299">
         <v>0.03</v>
-      </c>
-      <c r="S299" t="s">
-        <v>496</v>
       </c>
       <c r="T299">
         <v>4.173</v>
@@ -40622,9 +37407,6 @@
       <c r="K300">
         <v>2</v>
       </c>
-      <c r="L300" t="s">
-        <v>496</v>
-      </c>
       <c r="M300">
         <v>23.9</v>
       </c>
@@ -40872,9 +37654,6 @@
       <c r="K302">
         <v>2</v>
       </c>
-      <c r="L302" t="s">
-        <v>496</v>
-      </c>
       <c r="M302">
         <v>26</v>
       </c>
@@ -40988,9 +37767,6 @@
       <c r="H303">
         <v>5</v>
       </c>
-      <c r="I303" t="s">
-        <v>496</v>
-      </c>
       <c r="J303">
         <v>1.05</v>
       </c>
@@ -41113,9 +37889,6 @@
       <c r="H304">
         <v>55</v>
       </c>
-      <c r="I304" t="s">
-        <v>496</v>
-      </c>
       <c r="J304">
         <v>2.2000000000000002</v>
       </c>
@@ -41142,9 +37915,6 @@
       </c>
       <c r="R304">
         <v>0.06</v>
-      </c>
-      <c r="S304" t="s">
-        <v>496</v>
       </c>
       <c r="T304">
         <v>3.5979999999999999</v>
@@ -41482,15 +38252,6 @@
       <c r="F307">
         <v>31.27861111</v>
       </c>
-      <c r="G307" t="s">
-        <v>496</v>
-      </c>
-      <c r="H307" t="s">
-        <v>496</v>
-      </c>
-      <c r="I307" t="s">
-        <v>496</v>
-      </c>
       <c r="J307">
         <v>4.5</v>
       </c>
@@ -41506,9 +38267,6 @@
       <c r="N307">
         <v>21.41</v>
       </c>
-      <c r="O307" t="s">
-        <v>496</v>
-      </c>
       <c r="P307">
         <v>0.3</v>
       </c>
@@ -41517,9 +38275,6 @@
       </c>
       <c r="R307">
         <v>0.05</v>
-      </c>
-      <c r="S307" t="s">
-        <v>496</v>
       </c>
       <c r="T307">
         <v>1.7130000000000001</v>
@@ -41732,24 +38487,12 @@
       <c r="F309">
         <v>36.937222220000002</v>
       </c>
-      <c r="G309" t="s">
-        <v>496</v>
-      </c>
-      <c r="H309" t="s">
-        <v>496</v>
-      </c>
-      <c r="I309" t="s">
-        <v>496</v>
-      </c>
       <c r="J309">
         <v>0.3</v>
       </c>
       <c r="K309">
         <v>1.5</v>
       </c>
-      <c r="L309" t="s">
-        <v>496</v>
-      </c>
       <c r="M309">
         <v>25.6</v>
       </c>
@@ -41770,42 +38513,6 @@
       </c>
       <c r="S309">
         <v>37.124000000000002</v>
-      </c>
-      <c r="T309" t="s">
-        <v>496</v>
-      </c>
-      <c r="U309" t="s">
-        <v>496</v>
-      </c>
-      <c r="V309" t="s">
-        <v>496</v>
-      </c>
-      <c r="W309" t="s">
-        <v>496</v>
-      </c>
-      <c r="X309" t="s">
-        <v>496</v>
-      </c>
-      <c r="Y309" t="s">
-        <v>496</v>
-      </c>
-      <c r="Z309" t="s">
-        <v>496</v>
-      </c>
-      <c r="AA309" t="s">
-        <v>496</v>
-      </c>
-      <c r="AB309" t="s">
-        <v>496</v>
-      </c>
-      <c r="AC309" t="s">
-        <v>496</v>
-      </c>
-      <c r="AD309" t="s">
-        <v>496</v>
-      </c>
-      <c r="AE309" t="s">
-        <v>496</v>
       </c>
       <c r="AH309">
         <v>2E-3</v>
@@ -41872,23 +38579,11 @@
       <c r="K310">
         <v>0.8</v>
       </c>
-      <c r="L310" t="s">
-        <v>496</v>
-      </c>
-      <c r="M310" t="s">
-        <v>496</v>
-      </c>
-      <c r="N310" t="s">
-        <v>496</v>
-      </c>
       <c r="O310">
         <v>0.06</v>
       </c>
       <c r="P310">
         <v>0.3</v>
-      </c>
-      <c r="Q310" t="s">
-        <v>496</v>
       </c>
       <c r="R310">
         <v>0.03</v>
@@ -41988,17 +38683,11 @@
       <c r="H311">
         <v>1</v>
       </c>
-      <c r="I311" t="s">
-        <v>496</v>
-      </c>
       <c r="J311">
         <v>0.85</v>
       </c>
       <c r="K311">
         <v>0.7</v>
-      </c>
-      <c r="L311" t="s">
-        <v>496</v>
       </c>
       <c r="M311">
         <v>32.86</v>
@@ -42113,9 +38802,6 @@
       <c r="H312">
         <v>6</v>
       </c>
-      <c r="I312" t="s">
-        <v>496</v>
-      </c>
       <c r="J312">
         <v>0.7</v>
       </c>
@@ -42256,20 +38942,11 @@
       <c r="N313">
         <v>29.11</v>
       </c>
-      <c r="O313" t="s">
-        <v>496</v>
-      </c>
       <c r="P313">
         <v>0.6</v>
       </c>
-      <c r="Q313" t="s">
-        <v>496</v>
-      </c>
       <c r="R313">
         <v>0.03</v>
-      </c>
-      <c r="S313" t="s">
-        <v>496</v>
       </c>
       <c r="T313">
         <v>0.49</v>
@@ -42372,18 +39049,12 @@
       <c r="K314">
         <v>1.5</v>
       </c>
-      <c r="L314" t="s">
-        <v>496</v>
-      </c>
       <c r="M314">
         <v>27.3</v>
       </c>
       <c r="N314">
         <v>27.15</v>
       </c>
-      <c r="O314" t="s">
-        <v>496</v>
-      </c>
       <c r="P314">
         <v>0.9</v>
       </c>
@@ -42395,42 +39066,6 @@
       </c>
       <c r="S314">
         <v>51.048999999999999</v>
-      </c>
-      <c r="T314" t="s">
-        <v>496</v>
-      </c>
-      <c r="U314" t="s">
-        <v>496</v>
-      </c>
-      <c r="V314" t="s">
-        <v>496</v>
-      </c>
-      <c r="W314" t="s">
-        <v>496</v>
-      </c>
-      <c r="X314" t="s">
-        <v>496</v>
-      </c>
-      <c r="Y314" t="s">
-        <v>496</v>
-      </c>
-      <c r="Z314" t="s">
-        <v>496</v>
-      </c>
-      <c r="AA314" t="s">
-        <v>496</v>
-      </c>
-      <c r="AB314" t="s">
-        <v>496</v>
-      </c>
-      <c r="AC314" t="s">
-        <v>496</v>
-      </c>
-      <c r="AD314" t="s">
-        <v>496</v>
-      </c>
-      <c r="AE314" t="s">
-        <v>496</v>
       </c>
       <c r="AH314">
         <v>6.0000000000000001E-3</v>
@@ -42488,9 +39123,6 @@
       <c r="H315">
         <v>40</v>
       </c>
-      <c r="I315" t="s">
-        <v>496</v>
-      </c>
       <c r="J315">
         <v>3</v>
       </c>
@@ -42506,20 +39138,11 @@
       <c r="N315">
         <v>25.15</v>
       </c>
-      <c r="O315" t="s">
-        <v>496</v>
-      </c>
-      <c r="P315" t="s">
-        <v>496</v>
-      </c>
       <c r="Q315">
         <v>0.27900000000000003</v>
       </c>
       <c r="R315">
         <v>0.02</v>
-      </c>
-      <c r="S315" t="s">
-        <v>496</v>
       </c>
       <c r="T315">
         <v>1.4390000000000001</v>
@@ -42607,24 +39230,12 @@
       <c r="F316">
         <v>31.420500000000001</v>
       </c>
-      <c r="G316" t="s">
-        <v>496</v>
-      </c>
-      <c r="H316" t="s">
-        <v>496</v>
-      </c>
-      <c r="I316" t="s">
-        <v>496</v>
-      </c>
       <c r="J316">
         <v>0.99</v>
       </c>
       <c r="K316">
         <v>6</v>
       </c>
-      <c r="L316" t="s">
-        <v>496</v>
-      </c>
       <c r="M316">
         <v>25.5</v>
       </c>
@@ -42637,14 +39248,8 @@
       <c r="P316">
         <v>0.8</v>
       </c>
-      <c r="Q316" t="s">
-        <v>496</v>
-      </c>
       <c r="R316">
         <v>0.09</v>
-      </c>
-      <c r="S316" t="s">
-        <v>496</v>
       </c>
       <c r="T316">
         <v>5.7770000000000001</v>
@@ -42732,24 +39337,12 @@
       <c r="F317">
         <v>31.63313333</v>
       </c>
-      <c r="G317" t="s">
-        <v>496</v>
-      </c>
-      <c r="H317" t="s">
-        <v>496</v>
-      </c>
-      <c r="I317" t="s">
-        <v>496</v>
-      </c>
       <c r="J317">
         <v>0.75</v>
       </c>
       <c r="K317">
         <v>6.5</v>
       </c>
-      <c r="L317" t="s">
-        <v>496</v>
-      </c>
       <c r="M317">
         <v>26.4</v>
       </c>
@@ -42762,14 +39355,8 @@
       <c r="P317">
         <v>0.5</v>
       </c>
-      <c r="Q317" t="s">
-        <v>496</v>
-      </c>
       <c r="R317">
         <v>0.05</v>
-      </c>
-      <c r="S317" t="s">
-        <v>496</v>
       </c>
       <c r="T317">
         <v>3.8330000000000002</v>
@@ -42884,9 +39471,6 @@
       <c r="O318">
         <v>0.02</v>
       </c>
-      <c r="P318" t="s">
-        <v>496</v>
-      </c>
       <c r="Q318">
         <v>1.9E-2</v>
       </c>
@@ -42895,42 +39479,6 @@
       </c>
       <c r="S318">
         <v>7.1349999999999998</v>
-      </c>
-      <c r="T318" t="s">
-        <v>496</v>
-      </c>
-      <c r="U318" t="s">
-        <v>496</v>
-      </c>
-      <c r="V318" t="s">
-        <v>496</v>
-      </c>
-      <c r="W318" t="s">
-        <v>496</v>
-      </c>
-      <c r="X318" t="s">
-        <v>496</v>
-      </c>
-      <c r="Y318" t="s">
-        <v>496</v>
-      </c>
-      <c r="Z318" t="s">
-        <v>496</v>
-      </c>
-      <c r="AA318" t="s">
-        <v>496</v>
-      </c>
-      <c r="AB318" t="s">
-        <v>496</v>
-      </c>
-      <c r="AC318" t="s">
-        <v>496</v>
-      </c>
-      <c r="AD318" t="s">
-        <v>496</v>
-      </c>
-      <c r="AE318" t="s">
-        <v>496</v>
       </c>
       <c r="AH318">
         <v>0</v>
@@ -42988,9 +39536,6 @@
       <c r="H319">
         <v>36</v>
       </c>
-      <c r="I319" t="s">
-        <v>496</v>
-      </c>
       <c r="J319">
         <v>3.2</v>
       </c>
@@ -43017,9 +39562,6 @@
       </c>
       <c r="R319">
         <v>0.03</v>
-      </c>
-      <c r="S319" t="s">
-        <v>496</v>
       </c>
       <c r="T319">
         <v>0.155</v>
@@ -43122,9 +39664,6 @@
       <c r="K320">
         <v>1.5</v>
       </c>
-      <c r="L320" t="s">
-        <v>496</v>
-      </c>
       <c r="M320">
         <v>24.9</v>
       </c>
@@ -43137,50 +39676,11 @@
       <c r="P320">
         <v>1.5</v>
       </c>
-      <c r="Q320" t="s">
-        <v>496</v>
-      </c>
       <c r="R320">
         <v>0.06</v>
       </c>
       <c r="S320">
         <v>84.131</v>
-      </c>
-      <c r="T320" t="s">
-        <v>496</v>
-      </c>
-      <c r="U320" t="s">
-        <v>496</v>
-      </c>
-      <c r="V320" t="s">
-        <v>496</v>
-      </c>
-      <c r="W320" t="s">
-        <v>496</v>
-      </c>
-      <c r="X320" t="s">
-        <v>496</v>
-      </c>
-      <c r="Y320" t="s">
-        <v>496</v>
-      </c>
-      <c r="Z320" t="s">
-        <v>496</v>
-      </c>
-      <c r="AA320" t="s">
-        <v>496</v>
-      </c>
-      <c r="AB320" t="s">
-        <v>496</v>
-      </c>
-      <c r="AC320" t="s">
-        <v>496</v>
-      </c>
-      <c r="AD320" t="s">
-        <v>496</v>
-      </c>
-      <c r="AE320" t="s">
-        <v>496</v>
       </c>
       <c r="AH320">
         <v>5.8999999999999997E-2</v>
@@ -43232,15 +39732,6 @@
       <c r="F321">
         <v>30.834444439999999</v>
       </c>
-      <c r="G321" t="s">
-        <v>496</v>
-      </c>
-      <c r="H321" t="s">
-        <v>496</v>
-      </c>
-      <c r="I321" t="s">
-        <v>496</v>
-      </c>
       <c r="J321">
         <v>2.2200000000000002</v>
       </c>
@@ -43267,9 +39758,6 @@
       </c>
       <c r="R321">
         <v>0.04</v>
-      </c>
-      <c r="S321" t="s">
-        <v>496</v>
       </c>
       <c r="T321">
         <v>0.108</v>
@@ -43363,9 +39851,6 @@
       <c r="H322">
         <v>34</v>
       </c>
-      <c r="I322" t="s">
-        <v>496</v>
-      </c>
       <c r="J322">
         <v>1.5</v>
       </c>
@@ -43386,9 +39871,6 @@
       </c>
       <c r="P322">
         <v>0.8</v>
-      </c>
-      <c r="Q322" t="s">
-        <v>496</v>
       </c>
       <c r="R322">
         <v>0.04</v>
@@ -43488,17 +39970,11 @@
       <c r="H323">
         <v>4</v>
       </c>
-      <c r="I323" t="s">
-        <v>496</v>
-      </c>
       <c r="J323">
         <v>0.4</v>
       </c>
       <c r="K323">
         <v>2.5</v>
-      </c>
-      <c r="L323" t="s">
-        <v>496</v>
       </c>
       <c r="M323">
         <v>26.1</v>
@@ -43607,24 +40083,12 @@
       <c r="F324">
         <v>30.838333330000001</v>
       </c>
-      <c r="G324" t="s">
-        <v>496</v>
-      </c>
-      <c r="H324" t="s">
-        <v>496</v>
-      </c>
-      <c r="I324" t="s">
-        <v>496</v>
-      </c>
       <c r="J324">
         <v>2.7</v>
       </c>
       <c r="K324">
         <v>8.5</v>
       </c>
-      <c r="L324" t="s">
-        <v>496</v>
-      </c>
       <c r="M324">
         <v>26.4</v>
       </c>
@@ -43637,14 +40101,8 @@
       <c r="P324">
         <v>0.7</v>
       </c>
-      <c r="Q324" t="s">
-        <v>496</v>
-      </c>
       <c r="R324">
         <v>0.11</v>
-      </c>
-      <c r="S324" t="s">
-        <v>496</v>
       </c>
       <c r="T324">
         <v>0.54400000000000004</v>
@@ -43732,38 +40190,20 @@
       <c r="F325">
         <v>30.897316669999999</v>
       </c>
-      <c r="G325" t="s">
-        <v>496</v>
-      </c>
-      <c r="H325" t="s">
-        <v>496</v>
-      </c>
-      <c r="I325" t="s">
-        <v>496</v>
-      </c>
       <c r="J325">
         <v>1.9</v>
       </c>
       <c r="K325">
         <v>10</v>
       </c>
-      <c r="L325" t="s">
-        <v>496</v>
-      </c>
       <c r="M325">
         <v>26.9</v>
       </c>
       <c r="N325">
         <v>26.9</v>
       </c>
-      <c r="O325" t="s">
-        <v>496</v>
-      </c>
       <c r="P325">
         <v>0.6</v>
-      </c>
-      <c r="Q325" t="s">
-        <v>496</v>
       </c>
       <c r="R325">
         <v>0.04</v>
@@ -43988,18 +40428,12 @@
       <c r="H327">
         <v>1</v>
       </c>
-      <c r="I327" t="s">
-        <v>496</v>
-      </c>
       <c r="J327">
         <v>0.25</v>
       </c>
       <c r="K327">
         <v>0.5</v>
       </c>
-      <c r="L327" t="s">
-        <v>496</v>
-      </c>
       <c r="M327">
         <v>27</v>
       </c>
@@ -44020,42 +40454,6 @@
       </c>
       <c r="S327">
         <v>35.762999999999998</v>
-      </c>
-      <c r="T327" t="s">
-        <v>496</v>
-      </c>
-      <c r="U327" t="s">
-        <v>496</v>
-      </c>
-      <c r="V327" t="s">
-        <v>496</v>
-      </c>
-      <c r="W327" t="s">
-        <v>496</v>
-      </c>
-      <c r="X327" t="s">
-        <v>496</v>
-      </c>
-      <c r="Y327" t="s">
-        <v>496</v>
-      </c>
-      <c r="Z327" t="s">
-        <v>496</v>
-      </c>
-      <c r="AA327" t="s">
-        <v>496</v>
-      </c>
-      <c r="AB327" t="s">
-        <v>496</v>
-      </c>
-      <c r="AC327" t="s">
-        <v>496</v>
-      </c>
-      <c r="AD327" t="s">
-        <v>496</v>
-      </c>
-      <c r="AE327" t="s">
-        <v>496</v>
       </c>
       <c r="AH327">
         <v>2E-3</v>
@@ -44113,9 +40511,6 @@
       <c r="H328">
         <v>6</v>
       </c>
-      <c r="I328" t="s">
-        <v>496</v>
-      </c>
       <c r="J328">
         <v>1.75</v>
       </c>
@@ -44238,18 +40633,12 @@
       <c r="H329">
         <v>4</v>
       </c>
-      <c r="I329" t="s">
-        <v>496</v>
-      </c>
       <c r="J329">
         <v>0.93</v>
       </c>
       <c r="K329">
         <v>3.5</v>
       </c>
-      <c r="L329" t="s">
-        <v>496</v>
-      </c>
       <c r="M329">
         <v>26.2</v>
       </c>
@@ -44261,9 +40650,6 @@
       </c>
       <c r="P329">
         <v>0.6</v>
-      </c>
-      <c r="Q329" t="s">
-        <v>496</v>
       </c>
       <c r="R329">
         <v>0.09</v>
@@ -44363,9 +40749,6 @@
       <c r="H330">
         <v>12</v>
       </c>
-      <c r="I330" t="s">
-        <v>496</v>
-      </c>
       <c r="J330">
         <v>2.75</v>
       </c>
@@ -44387,14 +40770,8 @@
       <c r="P330">
         <v>0.3</v>
       </c>
-      <c r="Q330" t="s">
-        <v>496</v>
-      </c>
       <c r="R330">
         <v>0.02</v>
-      </c>
-      <c r="S330" t="s">
-        <v>496</v>
       </c>
       <c r="T330">
         <v>9.8059999999999992</v>
@@ -44482,15 +40859,9 @@
       <c r="F331">
         <v>27.929276999999999</v>
       </c>
-      <c r="G331" t="s">
-        <v>496</v>
-      </c>
       <c r="H331">
         <v>47</v>
       </c>
-      <c r="I331" t="s">
-        <v>496</v>
-      </c>
       <c r="J331">
         <v>1.75</v>
       </c>
@@ -44511,9 +40882,6 @@
       </c>
       <c r="P331">
         <v>0.5</v>
-      </c>
-      <c r="Q331" t="s">
-        <v>496</v>
       </c>
       <c r="R331">
         <v>0.05</v>
@@ -44637,9 +41005,6 @@
       <c r="P332">
         <v>1.4</v>
       </c>
-      <c r="Q332" t="s">
-        <v>496</v>
-      </c>
       <c r="R332">
         <v>0.04</v>
       </c>
@@ -44738,9 +41103,6 @@
       <c r="H333">
         <v>10</v>
       </c>
-      <c r="I333" t="s">
-        <v>496</v>
-      </c>
       <c r="J333">
         <v>1.9</v>
       </c>
@@ -44761,9 +41123,6 @@
       </c>
       <c r="P333">
         <v>0.2</v>
-      </c>
-      <c r="Q333" t="s">
-        <v>496</v>
       </c>
       <c r="R333">
         <v>0.03</v>
@@ -44857,24 +41216,12 @@
       <c r="F334">
         <v>30.848333329999999</v>
       </c>
-      <c r="G334" t="s">
-        <v>496</v>
-      </c>
-      <c r="H334" t="s">
-        <v>496</v>
-      </c>
-      <c r="I334" t="s">
-        <v>496</v>
-      </c>
       <c r="J334">
         <v>2.16</v>
       </c>
       <c r="K334">
         <v>20</v>
       </c>
-      <c r="L334" t="s">
-        <v>496</v>
-      </c>
       <c r="M334">
         <v>29.3</v>
       </c>
@@ -44892,9 +41239,6 @@
       </c>
       <c r="R334">
         <v>0.06</v>
-      </c>
-      <c r="S334" t="s">
-        <v>496</v>
       </c>
       <c r="T334">
         <v>5.0860000000000003</v>
@@ -44982,24 +41326,12 @@
       <c r="F335">
         <v>30.813480559999999</v>
       </c>
-      <c r="G335" t="s">
-        <v>496</v>
-      </c>
-      <c r="H335" t="s">
-        <v>496</v>
-      </c>
-      <c r="I335" t="s">
-        <v>496</v>
-      </c>
       <c r="J335">
         <v>1.8</v>
       </c>
       <c r="K335">
         <v>20</v>
       </c>
-      <c r="L335" t="s">
-        <v>496</v>
-      </c>
       <c r="M335">
         <v>25.8</v>
       </c>
@@ -45017,9 +41349,6 @@
       </c>
       <c r="R335">
         <v>0.17</v>
-      </c>
-      <c r="S335" t="s">
-        <v>496</v>
       </c>
       <c r="T335">
         <v>1.9650000000000001</v>
@@ -45113,18 +41442,12 @@
       <c r="H336">
         <v>5</v>
       </c>
-      <c r="I336" t="s">
-        <v>496</v>
-      </c>
       <c r="J336">
         <v>0.72</v>
       </c>
       <c r="K336">
         <v>3.8</v>
       </c>
-      <c r="L336" t="s">
-        <v>496</v>
-      </c>
       <c r="M336">
         <v>25.1</v>
       </c>
@@ -45136,9 +41459,6 @@
       </c>
       <c r="P336">
         <v>0.8</v>
-      </c>
-      <c r="Q336" t="s">
-        <v>496</v>
       </c>
       <c r="R336">
         <v>0.02</v>
@@ -45238,9 +41558,6 @@
       <c r="H337">
         <v>10</v>
       </c>
-      <c r="I337" t="s">
-        <v>496</v>
-      </c>
       <c r="J337">
         <v>5.0999999999999996</v>
       </c>
@@ -45267,9 +41584,6 @@
       </c>
       <c r="R337">
         <v>0.02</v>
-      </c>
-      <c r="S337" t="s">
-        <v>496</v>
       </c>
       <c r="T337">
         <v>0.82799999999999996</v>
@@ -45363,18 +41677,12 @@
       <c r="H338">
         <v>5</v>
       </c>
-      <c r="I338" t="s">
-        <v>496</v>
-      </c>
       <c r="J338">
         <v>2</v>
       </c>
       <c r="K338">
         <v>2.5</v>
       </c>
-      <c r="L338" t="s">
-        <v>496</v>
-      </c>
       <c r="M338">
         <v>26.7</v>
       </c>
@@ -45386,9 +41694,6 @@
       </c>
       <c r="P338">
         <v>1.2</v>
-      </c>
-      <c r="Q338" t="s">
-        <v>496</v>
       </c>
       <c r="R338">
         <v>7.0000000000000007E-2</v>
@@ -45497,9 +41802,6 @@
       <c r="K339">
         <v>4.1399999999999997</v>
       </c>
-      <c r="L339" t="s">
-        <v>496</v>
-      </c>
       <c r="M339">
         <v>26.3</v>
       </c>
@@ -45512,14 +41814,8 @@
       <c r="P339">
         <v>0.5</v>
       </c>
-      <c r="Q339" t="s">
-        <v>496</v>
-      </c>
       <c r="R339">
         <v>0.11</v>
-      </c>
-      <c r="S339" t="s">
-        <v>496</v>
       </c>
       <c r="T339">
         <v>16.341000000000001</v>
@@ -45607,9 +41903,6 @@
       <c r="F340">
         <v>41.050553000000001</v>
       </c>
-      <c r="G340" t="s">
-        <v>496</v>
-      </c>
       <c r="H340">
         <v>22</v>
       </c>
@@ -45637,9 +41930,6 @@
       <c r="P340">
         <v>0.2</v>
       </c>
-      <c r="Q340" t="s">
-        <v>496</v>
-      </c>
       <c r="R340">
         <v>0.02</v>
       </c>
@@ -45681,39 +41971,6 @@
       </c>
       <c r="AE340">
         <v>0</v>
-      </c>
-      <c r="AH340" t="s">
-        <v>496</v>
-      </c>
-      <c r="AI340" t="s">
-        <v>496</v>
-      </c>
-      <c r="AJ340" t="s">
-        <v>496</v>
-      </c>
-      <c r="AK340" t="s">
-        <v>496</v>
-      </c>
-      <c r="AL340" t="s">
-        <v>496</v>
-      </c>
-      <c r="AM340" t="s">
-        <v>496</v>
-      </c>
-      <c r="AN340" t="s">
-        <v>496</v>
-      </c>
-      <c r="AO340" t="s">
-        <v>496</v>
-      </c>
-      <c r="AP340" t="s">
-        <v>496</v>
-      </c>
-      <c r="AQ340" t="s">
-        <v>496</v>
-      </c>
-      <c r="AR340" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="341" spans="2:44">
@@ -45771,42 +42028,6 @@
       <c r="S341">
         <v>8.7769999999999992</v>
       </c>
-      <c r="T341" t="s">
-        <v>496</v>
-      </c>
-      <c r="U341" t="s">
-        <v>496</v>
-      </c>
-      <c r="V341" t="s">
-        <v>496</v>
-      </c>
-      <c r="W341" t="s">
-        <v>496</v>
-      </c>
-      <c r="X341" t="s">
-        <v>496</v>
-      </c>
-      <c r="Y341" t="s">
-        <v>496</v>
-      </c>
-      <c r="Z341" t="s">
-        <v>496</v>
-      </c>
-      <c r="AA341" t="s">
-        <v>496</v>
-      </c>
-      <c r="AB341" t="s">
-        <v>496</v>
-      </c>
-      <c r="AC341" t="s">
-        <v>496</v>
-      </c>
-      <c r="AD341" t="s">
-        <v>496</v>
-      </c>
-      <c r="AE341" t="s">
-        <v>496</v>
-      </c>
       <c r="AH341">
         <v>0</v>
       </c>
@@ -45863,74 +42084,26 @@
       <c r="H342">
         <v>3</v>
       </c>
-      <c r="I342" t="s">
-        <v>496</v>
-      </c>
       <c r="J342">
         <v>0.5</v>
       </c>
       <c r="K342">
         <v>1.5</v>
       </c>
-      <c r="L342" t="s">
-        <v>496</v>
-      </c>
       <c r="M342">
         <v>25</v>
       </c>
       <c r="N342">
         <v>24.9</v>
       </c>
-      <c r="O342" t="s">
-        <v>496</v>
-      </c>
       <c r="P342">
         <v>0.5</v>
       </c>
-      <c r="Q342" t="s">
-        <v>496</v>
-      </c>
       <c r="R342">
         <v>0.02</v>
       </c>
       <c r="S342">
         <v>86.988</v>
-      </c>
-      <c r="T342" t="s">
-        <v>496</v>
-      </c>
-      <c r="U342" t="s">
-        <v>496</v>
-      </c>
-      <c r="V342" t="s">
-        <v>496</v>
-      </c>
-      <c r="W342" t="s">
-        <v>496</v>
-      </c>
-      <c r="X342" t="s">
-        <v>496</v>
-      </c>
-      <c r="Y342" t="s">
-        <v>496</v>
-      </c>
-      <c r="Z342" t="s">
-        <v>496</v>
-      </c>
-      <c r="AA342" t="s">
-        <v>496</v>
-      </c>
-      <c r="AB342" t="s">
-        <v>496</v>
-      </c>
-      <c r="AC342" t="s">
-        <v>496</v>
-      </c>
-      <c r="AD342" t="s">
-        <v>496</v>
-      </c>
-      <c r="AE342" t="s">
-        <v>496</v>
       </c>
       <c r="AH342">
         <v>6.0000000000000001E-3</v>
@@ -46232,15 +42405,6 @@
       <c r="F345">
         <v>41.024333329999997</v>
       </c>
-      <c r="G345" t="s">
-        <v>496</v>
-      </c>
-      <c r="H345" t="s">
-        <v>496</v>
-      </c>
-      <c r="I345" t="s">
-        <v>496</v>
-      </c>
       <c r="J345">
         <v>1.5</v>
       </c>
@@ -46262,9 +42426,6 @@
       <c r="P345">
         <v>1.4</v>
       </c>
-      <c r="Q345" t="s">
-        <v>496</v>
-      </c>
       <c r="R345">
         <v>0.2</v>
       </c>
@@ -46306,39 +42467,6 @@
       </c>
       <c r="AE345">
         <v>0</v>
-      </c>
-      <c r="AH345" t="s">
-        <v>496</v>
-      </c>
-      <c r="AI345" t="s">
-        <v>496</v>
-      </c>
-      <c r="AJ345" t="s">
-        <v>496</v>
-      </c>
-      <c r="AK345" t="s">
-        <v>496</v>
-      </c>
-      <c r="AL345" t="s">
-        <v>496</v>
-      </c>
-      <c r="AM345" t="s">
-        <v>496</v>
-      </c>
-      <c r="AN345" t="s">
-        <v>496</v>
-      </c>
-      <c r="AO345" t="s">
-        <v>496</v>
-      </c>
-      <c r="AP345" t="s">
-        <v>496</v>
-      </c>
-      <c r="AQ345" t="s">
-        <v>496</v>
-      </c>
-      <c r="AR345" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="346" spans="2:44">
@@ -46363,23 +42491,11 @@
       <c r="H346">
         <v>2</v>
       </c>
-      <c r="I346" t="s">
-        <v>496</v>
-      </c>
       <c r="J346">
         <v>1.03</v>
       </c>
       <c r="K346">
         <v>1</v>
-      </c>
-      <c r="L346" t="s">
-        <v>496</v>
-      </c>
-      <c r="M346" t="s">
-        <v>496</v>
-      </c>
-      <c r="N346" t="s">
-        <v>496</v>
       </c>
       <c r="O346">
         <v>0.06</v>
@@ -46512,9 +42628,6 @@
       <c r="P347">
         <v>0.9</v>
       </c>
-      <c r="Q347" t="s">
-        <v>496</v>
-      </c>
       <c r="R347">
         <v>0.03</v>
       </c>
@@ -46637,9 +42750,6 @@
       <c r="P348">
         <v>0.8</v>
       </c>
-      <c r="Q348" t="s">
-        <v>496</v>
-      </c>
       <c r="R348">
         <v>0.02</v>
       </c>
@@ -46738,9 +42848,6 @@
       <c r="H349">
         <v>10</v>
       </c>
-      <c r="I349" t="s">
-        <v>496</v>
-      </c>
       <c r="J349">
         <v>2.4</v>
       </c>
@@ -46761,9 +42868,6 @@
       </c>
       <c r="P349">
         <v>0.4</v>
-      </c>
-      <c r="Q349" t="s">
-        <v>496</v>
       </c>
       <c r="R349">
         <v>0.02</v>
@@ -46863,9 +42967,6 @@
       <c r="H350">
         <v>25</v>
       </c>
-      <c r="I350" t="s">
-        <v>496</v>
-      </c>
       <c r="J350">
         <v>0.4</v>
       </c>
@@ -46895,42 +42996,6 @@
       </c>
       <c r="S350">
         <v>20.867000000000001</v>
-      </c>
-      <c r="T350" t="s">
-        <v>496</v>
-      </c>
-      <c r="U350" t="s">
-        <v>496</v>
-      </c>
-      <c r="V350" t="s">
-        <v>496</v>
-      </c>
-      <c r="W350" t="s">
-        <v>496</v>
-      </c>
-      <c r="X350" t="s">
-        <v>496</v>
-      </c>
-      <c r="Y350" t="s">
-        <v>496</v>
-      </c>
-      <c r="Z350" t="s">
-        <v>496</v>
-      </c>
-      <c r="AA350" t="s">
-        <v>496</v>
-      </c>
-      <c r="AB350" t="s">
-        <v>496</v>
-      </c>
-      <c r="AC350" t="s">
-        <v>496</v>
-      </c>
-      <c r="AD350" t="s">
-        <v>496</v>
-      </c>
-      <c r="AE350" t="s">
-        <v>496</v>
       </c>
       <c r="AH350">
         <v>0</v>
@@ -46988,9 +43053,6 @@
       <c r="H351">
         <v>31</v>
       </c>
-      <c r="I351" t="s">
-        <v>496</v>
-      </c>
       <c r="J351">
         <v>3.6</v>
       </c>
@@ -47113,9 +43175,6 @@
       <c r="H352">
         <v>19</v>
       </c>
-      <c r="I352" t="s">
-        <v>496</v>
-      </c>
       <c r="J352">
         <v>3</v>
       </c>
@@ -47136,15 +43195,6 @@
       </c>
       <c r="P352">
         <v>0.4</v>
-      </c>
-      <c r="Q352" t="s">
-        <v>496</v>
-      </c>
-      <c r="R352" t="s">
-        <v>496</v>
-      </c>
-      <c r="S352" t="s">
-        <v>496</v>
       </c>
       <c r="T352">
         <v>0.48399999999999999</v>
@@ -47247,18 +43297,12 @@
       <c r="K353">
         <v>1.5</v>
       </c>
-      <c r="L353" t="s">
-        <v>496</v>
-      </c>
       <c r="M353">
         <v>25.3</v>
       </c>
       <c r="N353">
         <v>25.1</v>
       </c>
-      <c r="O353" t="s">
-        <v>496</v>
-      </c>
       <c r="P353">
         <v>0.8</v>
       </c>
@@ -47271,42 +43315,6 @@
       <c r="S353">
         <v>56.131999999999998</v>
       </c>
-      <c r="T353" t="s">
-        <v>496</v>
-      </c>
-      <c r="U353" t="s">
-        <v>496</v>
-      </c>
-      <c r="V353" t="s">
-        <v>496</v>
-      </c>
-      <c r="W353" t="s">
-        <v>496</v>
-      </c>
-      <c r="X353" t="s">
-        <v>496</v>
-      </c>
-      <c r="Y353" t="s">
-        <v>496</v>
-      </c>
-      <c r="Z353" t="s">
-        <v>496</v>
-      </c>
-      <c r="AA353" t="s">
-        <v>496</v>
-      </c>
-      <c r="AB353" t="s">
-        <v>496</v>
-      </c>
-      <c r="AC353" t="s">
-        <v>496</v>
-      </c>
-      <c r="AD353" t="s">
-        <v>496</v>
-      </c>
-      <c r="AE353" t="s">
-        <v>496</v>
-      </c>
       <c r="AH353">
         <v>2.8000000000000001E-2</v>
       </c>
@@ -47333,12 +43341,6 @@
       </c>
       <c r="AP353">
         <v>0</v>
-      </c>
-      <c r="AQ353" t="s">
-        <v>496</v>
-      </c>
-      <c r="AR353" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="354" spans="2:44">
@@ -47363,18 +43365,12 @@
       <c r="H354">
         <v>4</v>
       </c>
-      <c r="I354" t="s">
-        <v>496</v>
-      </c>
       <c r="J354">
         <v>0.99</v>
       </c>
       <c r="K354">
         <v>4.3</v>
       </c>
-      <c r="L354" t="s">
-        <v>496</v>
-      </c>
       <c r="M354">
         <v>27.5</v>
       </c>
@@ -47387,14 +43383,8 @@
       <c r="P354">
         <v>0.8</v>
       </c>
-      <c r="Q354" t="s">
-        <v>496</v>
-      </c>
       <c r="R354">
         <v>0.05</v>
-      </c>
-      <c r="S354" t="s">
-        <v>496</v>
       </c>
       <c r="T354">
         <v>22.672000000000001</v>
@@ -47512,9 +43502,6 @@
       <c r="P355">
         <v>0.9</v>
       </c>
-      <c r="Q355" t="s">
-        <v>496</v>
-      </c>
       <c r="R355">
         <v>0.03</v>
       </c>
@@ -47613,74 +43600,26 @@
       <c r="H356">
         <v>2</v>
       </c>
-      <c r="I356" t="s">
-        <v>496</v>
-      </c>
       <c r="J356">
         <v>0.3</v>
       </c>
       <c r="K356">
         <v>1</v>
       </c>
-      <c r="L356" t="s">
-        <v>496</v>
-      </c>
       <c r="M356">
         <v>27</v>
       </c>
       <c r="N356">
         <v>27.07</v>
       </c>
-      <c r="O356" t="s">
-        <v>496</v>
-      </c>
       <c r="P356">
         <v>0.4</v>
       </c>
-      <c r="Q356" t="s">
-        <v>496</v>
-      </c>
       <c r="R356">
         <v>0.13</v>
       </c>
       <c r="S356">
         <v>39.835000000000001</v>
-      </c>
-      <c r="T356" t="s">
-        <v>496</v>
-      </c>
-      <c r="U356" t="s">
-        <v>496</v>
-      </c>
-      <c r="V356" t="s">
-        <v>496</v>
-      </c>
-      <c r="W356" t="s">
-        <v>496</v>
-      </c>
-      <c r="X356" t="s">
-        <v>496</v>
-      </c>
-      <c r="Y356" t="s">
-        <v>496</v>
-      </c>
-      <c r="Z356" t="s">
-        <v>496</v>
-      </c>
-      <c r="AA356" t="s">
-        <v>496</v>
-      </c>
-      <c r="AB356" t="s">
-        <v>496</v>
-      </c>
-      <c r="AC356" t="s">
-        <v>496</v>
-      </c>
-      <c r="AD356" t="s">
-        <v>496</v>
-      </c>
-      <c r="AE356" t="s">
-        <v>496</v>
       </c>
       <c r="AH356">
         <v>2E-3</v>
@@ -47732,9 +43671,6 @@
       <c r="F357">
         <v>40.409222219999997</v>
       </c>
-      <c r="G357" t="s">
-        <v>496</v>
-      </c>
       <c r="H357">
         <v>22</v>
       </c>
@@ -47771,18 +43707,6 @@
       <c r="S357">
         <v>5.8890000000000002</v>
       </c>
-      <c r="T357" t="s">
-        <v>496</v>
-      </c>
-      <c r="U357" t="s">
-        <v>496</v>
-      </c>
-      <c r="V357" t="s">
-        <v>496</v>
-      </c>
-      <c r="W357" t="s">
-        <v>496</v>
-      </c>
       <c r="X357">
         <v>0</v>
       </c>
@@ -47806,39 +43730,6 @@
       </c>
       <c r="AE357">
         <v>0</v>
-      </c>
-      <c r="AH357" t="s">
-        <v>496</v>
-      </c>
-      <c r="AI357" t="s">
-        <v>496</v>
-      </c>
-      <c r="AJ357" t="s">
-        <v>496</v>
-      </c>
-      <c r="AK357" t="s">
-        <v>496</v>
-      </c>
-      <c r="AL357" t="s">
-        <v>496</v>
-      </c>
-      <c r="AM357" t="s">
-        <v>496</v>
-      </c>
-      <c r="AN357" t="s">
-        <v>496</v>
-      </c>
-      <c r="AO357" t="s">
-        <v>496</v>
-      </c>
-      <c r="AP357" t="s">
-        <v>496</v>
-      </c>
-      <c r="AQ357" t="s">
-        <v>496</v>
-      </c>
-      <c r="AR357" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="358" spans="2:44">
@@ -47857,9 +43748,6 @@
       <c r="F358">
         <v>41.641397220000002</v>
       </c>
-      <c r="G358" t="s">
-        <v>496</v>
-      </c>
       <c r="H358">
         <v>160</v>
       </c>
@@ -47931,39 +43819,6 @@
       </c>
       <c r="AE358">
         <v>0</v>
-      </c>
-      <c r="AH358" t="s">
-        <v>496</v>
-      </c>
-      <c r="AI358" t="s">
-        <v>496</v>
-      </c>
-      <c r="AJ358" t="s">
-        <v>496</v>
-      </c>
-      <c r="AK358" t="s">
-        <v>496</v>
-      </c>
-      <c r="AL358" t="s">
-        <v>496</v>
-      </c>
-      <c r="AM358" t="s">
-        <v>496</v>
-      </c>
-      <c r="AN358" t="s">
-        <v>496</v>
-      </c>
-      <c r="AO358" t="s">
-        <v>496</v>
-      </c>
-      <c r="AP358" t="s">
-        <v>496</v>
-      </c>
-      <c r="AQ358" t="s">
-        <v>496</v>
-      </c>
-      <c r="AR358" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="359" spans="2:44">
@@ -47997,9 +43852,6 @@
       <c r="K359">
         <v>2.5</v>
       </c>
-      <c r="L359" t="s">
-        <v>496</v>
-      </c>
       <c r="M359">
         <v>27.5</v>
       </c>
@@ -48110,9 +43962,6 @@
       <c r="G360">
         <v>1200</v>
       </c>
-      <c r="H360" t="s">
-        <v>496</v>
-      </c>
       <c r="I360">
         <v>15</v>
       </c>
@@ -48122,98 +43971,11 @@
       <c r="K360">
         <v>0.5</v>
       </c>
-      <c r="L360" t="s">
-        <v>496</v>
-      </c>
       <c r="M360">
         <v>25.9</v>
       </c>
       <c r="N360">
         <v>25.95</v>
-      </c>
-      <c r="O360" t="s">
-        <v>496</v>
-      </c>
-      <c r="P360" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q360" t="s">
-        <v>496</v>
-      </c>
-      <c r="R360" t="s">
-        <v>496</v>
-      </c>
-      <c r="S360" t="s">
-        <v>496</v>
-      </c>
-      <c r="T360" t="s">
-        <v>496</v>
-      </c>
-      <c r="U360" t="s">
-        <v>496</v>
-      </c>
-      <c r="V360" t="s">
-        <v>496</v>
-      </c>
-      <c r="W360" t="s">
-        <v>496</v>
-      </c>
-      <c r="X360" t="s">
-        <v>496</v>
-      </c>
-      <c r="Y360" t="s">
-        <v>496</v>
-      </c>
-      <c r="Z360" t="s">
-        <v>496</v>
-      </c>
-      <c r="AA360" t="s">
-        <v>496</v>
-      </c>
-      <c r="AB360" t="s">
-        <v>496</v>
-      </c>
-      <c r="AC360" t="s">
-        <v>496</v>
-      </c>
-      <c r="AD360" t="s">
-        <v>496</v>
-      </c>
-      <c r="AE360" t="s">
-        <v>496</v>
-      </c>
-      <c r="AH360" t="s">
-        <v>496</v>
-      </c>
-      <c r="AI360" t="s">
-        <v>496</v>
-      </c>
-      <c r="AJ360" t="s">
-        <v>496</v>
-      </c>
-      <c r="AK360" t="s">
-        <v>496</v>
-      </c>
-      <c r="AL360" t="s">
-        <v>496</v>
-      </c>
-      <c r="AM360" t="s">
-        <v>496</v>
-      </c>
-      <c r="AN360" t="s">
-        <v>496</v>
-      </c>
-      <c r="AO360" t="s">
-        <v>496</v>
-      </c>
-      <c r="AP360" t="s">
-        <v>496</v>
-      </c>
-      <c r="AQ360" t="s">
-        <v>496</v>
-      </c>
-      <c r="AR360" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="361" spans="2:44">
@@ -48238,9 +44000,6 @@
       <c r="H361">
         <v>10</v>
       </c>
-      <c r="I361" t="s">
-        <v>496</v>
-      </c>
       <c r="J361">
         <v>2.7</v>
       </c>
@@ -48267,45 +44026,6 @@
       </c>
       <c r="R361">
         <v>0.11</v>
-      </c>
-      <c r="S361" t="s">
-        <v>496</v>
-      </c>
-      <c r="T361" t="s">
-        <v>496</v>
-      </c>
-      <c r="U361" t="s">
-        <v>496</v>
-      </c>
-      <c r="V361" t="s">
-        <v>496</v>
-      </c>
-      <c r="W361" t="s">
-        <v>496</v>
-      </c>
-      <c r="X361" t="s">
-        <v>496</v>
-      </c>
-      <c r="Y361" t="s">
-        <v>496</v>
-      </c>
-      <c r="Z361" t="s">
-        <v>496</v>
-      </c>
-      <c r="AA361" t="s">
-        <v>496</v>
-      </c>
-      <c r="AB361" t="s">
-        <v>496</v>
-      </c>
-      <c r="AC361" t="s">
-        <v>496</v>
-      </c>
-      <c r="AD361" t="s">
-        <v>496</v>
-      </c>
-      <c r="AE361" t="s">
-        <v>496</v>
       </c>
       <c r="AH361">
         <v>0</v>
@@ -48357,15 +44077,6 @@
       <c r="F362">
         <v>32.025277780000003</v>
       </c>
-      <c r="G362" t="s">
-        <v>496</v>
-      </c>
-      <c r="H362" t="s">
-        <v>496</v>
-      </c>
-      <c r="I362" t="s">
-        <v>496</v>
-      </c>
       <c r="J362">
         <v>1.75</v>
       </c>
@@ -48488,9 +44199,6 @@
       <c r="H363">
         <v>21</v>
       </c>
-      <c r="I363" t="s">
-        <v>496</v>
-      </c>
       <c r="J363">
         <v>2.2000000000000002</v>
       </c>
@@ -48509,17 +44217,8 @@
       <c r="O363">
         <v>0.03</v>
       </c>
-      <c r="P363" t="s">
-        <v>496</v>
-      </c>
       <c r="Q363">
         <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="R363" t="s">
-        <v>496</v>
-      </c>
-      <c r="S363" t="s">
-        <v>496</v>
       </c>
       <c r="T363">
         <v>1.34</v>
@@ -48631,17 +44330,8 @@
       <c r="N364">
         <v>13.41</v>
       </c>
-      <c r="O364" t="s">
-        <v>496</v>
-      </c>
-      <c r="P364" t="s">
-        <v>496</v>
-      </c>
       <c r="Q364">
         <v>1E-3</v>
-      </c>
-      <c r="R364" t="s">
-        <v>496</v>
       </c>
       <c r="S364">
         <v>7.617</v>
@@ -48759,18 +44449,6 @@
       <c r="O365">
         <v>0.01</v>
       </c>
-      <c r="P365" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q365" t="s">
-        <v>496</v>
-      </c>
-      <c r="R365" t="s">
-        <v>496</v>
-      </c>
-      <c r="S365" t="s">
-        <v>496</v>
-      </c>
       <c r="T365">
         <v>0.70799999999999996</v>
       </c>
@@ -48872,9 +44550,6 @@
       <c r="K366">
         <v>7</v>
       </c>
-      <c r="L366" t="s">
-        <v>496</v>
-      </c>
       <c r="M366">
         <v>15.7</v>
       </c>
@@ -48988,9 +44663,6 @@
       <c r="H367">
         <v>21</v>
       </c>
-      <c r="I367" t="s">
-        <v>496</v>
-      </c>
       <c r="J367">
         <v>2.75</v>
       </c>
@@ -49014,9 +44686,6 @@
       </c>
       <c r="Q367">
         <v>6.3E-2</v>
-      </c>
-      <c r="R367" t="s">
-        <v>496</v>
       </c>
       <c r="S367">
         <v>19.698</v>
@@ -49122,9 +44791,6 @@
       <c r="K368">
         <v>7</v>
       </c>
-      <c r="L368" t="s">
-        <v>496</v>
-      </c>
       <c r="M368">
         <v>16.399999999999999</v>
       </c>
@@ -49139,9 +44805,6 @@
       </c>
       <c r="Q368">
         <v>1E-3</v>
-      </c>
-      <c r="R368" t="s">
-        <v>496</v>
       </c>
       <c r="S368">
         <v>50.819000000000003</v>
@@ -49238,9 +44901,6 @@
       <c r="H369">
         <v>67</v>
       </c>
-      <c r="I369" t="s">
-        <v>496</v>
-      </c>
       <c r="J369">
         <v>2.5</v>
       </c>
@@ -49259,17 +44919,8 @@
       <c r="O369">
         <v>0.04</v>
       </c>
-      <c r="P369" t="s">
-        <v>496</v>
-      </c>
       <c r="Q369">
         <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="R369" t="s">
-        <v>496</v>
-      </c>
-      <c r="S369" t="s">
-        <v>496</v>
       </c>
       <c r="T369">
         <v>3.5150000000000001</v>
@@ -49363,9 +45014,6 @@
       <c r="H370">
         <v>68</v>
       </c>
-      <c r="I370" t="s">
-        <v>496</v>
-      </c>
       <c r="J370">
         <v>2.75</v>
       </c>
@@ -49384,15 +45032,9 @@
       <c r="O370">
         <v>0.15</v>
       </c>
-      <c r="P370" t="s">
-        <v>496</v>
-      </c>
       <c r="Q370">
         <v>0.112</v>
       </c>
-      <c r="R370" t="s">
-        <v>496</v>
-      </c>
       <c r="S370">
         <v>0.91500000000000004</v>
       </c>
@@ -49464,6 +45106,620 @@
       </c>
       <c r="AR370">
         <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="72.6640625" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16" thickBot="1">
+      <c r="A1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16" thickBot="1">
+      <c r="A2" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16" thickBot="1">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16" thickBot="1">
+      <c r="A4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16" thickBot="1">
+      <c r="A5" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16" thickBot="1">
+      <c r="A6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16" thickBot="1">
+      <c r="A7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16" thickBot="1">
+      <c r="A8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16" thickBot="1">
+      <c r="A9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16" thickBot="1">
+      <c r="A10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16" thickBot="1">
+      <c r="A11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16" thickBot="1">
+      <c r="A12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16" thickBot="1">
+      <c r="A13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="29" thickBot="1">
+      <c r="A14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16" thickBot="1">
+      <c r="A15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16" thickBot="1">
+      <c r="A16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16" thickBot="1">
+      <c r="A17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16" thickBot="1">
+      <c r="A18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16" thickBot="1">
+      <c r="A19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16" thickBot="1">
+      <c r="A20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16" thickBot="1">
+      <c r="A21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16" thickBot="1">
+      <c r="A22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16" thickBot="1">
+      <c r="A23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16" thickBot="1">
+      <c r="A24" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16" thickBot="1">
+      <c r="A25" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16" thickBot="1">
+      <c r="A26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16" thickBot="1">
+      <c r="A27" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16" thickBot="1">
+      <c r="A28" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16" thickBot="1">
+      <c r="A29" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16" thickBot="1">
+      <c r="A30" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16" thickBot="1">
+      <c r="A31" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16" thickBot="1">
+      <c r="A32" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16" thickBot="1">
+      <c r="A33" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16" thickBot="1">
+      <c r="A34" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16" thickBot="1">
+      <c r="A35" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16" thickBot="1">
+      <c r="A36" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16" thickBot="1">
+      <c r="A37" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16" thickBot="1">
+      <c r="A38" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="16" thickBot="1">
+      <c r="A39" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="16" thickBot="1">
+      <c r="A40" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16" thickBot="1">
+      <c r="A41" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16" thickBot="1">
+      <c r="A42" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16" thickBot="1">
+      <c r="A43" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16" thickBot="1">
+      <c r="A44" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="16" thickBot="1">
+      <c r="A45" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16" thickBot="1">
+      <c r="A46" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
